--- a/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
+++ b/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="218">
   <si>
     <t>Employee Table</t>
   </si>
@@ -475,6 +475,210 @@
   </si>
   <si>
     <t>studentID (FK)</t>
+  </si>
+  <si>
+    <t>employeeID (FK)</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>university</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Stanford University</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Harvard University</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>University of Chicago</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Yale University</t>
+  </si>
+  <si>
+    <t>B.Com</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>California University</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>University of Florida</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Pennsylvania University</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>M.Com.</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>University of Michigan</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>University of Ohio</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>University Maryland</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>B.Com.</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Qualification Table</t>
+  </si>
+  <si>
+    <t>employeeID(FK)</t>
+  </si>
+  <si>
+    <t>spouse Table</t>
+  </si>
+  <si>
+    <t>Address Table</t>
+  </si>
+  <si>
+    <t>marry</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>leesa</t>
+  </si>
+  <si>
+    <t>ket</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>brook</t>
+  </si>
+  <si>
+    <t>denis</t>
+  </si>
+  <si>
+    <t>holde</t>
+  </si>
+  <si>
+    <t>richard</t>
+  </si>
+  <si>
+    <t>martin</t>
+  </si>
+  <si>
+    <t>betty</t>
+  </si>
+  <si>
+    <t>sharon</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>ali</t>
+  </si>
+  <si>
+    <t>philip</t>
+  </si>
+  <si>
+    <t>rajesh</t>
   </si>
 </sst>
 </file>
@@ -562,7 +766,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -618,6 +822,33 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,9 +1167,9 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="8"/>
       <c r="J4" s="9" t="s">
         <v>97</v>
@@ -1872,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:V45"/>
+  <dimension ref="B4:AK98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1885,53 +2116,87 @@
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.85546875" customWidth="1"/>
-    <col min="9" max="9" width="6.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.85546875" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.85546875" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" customWidth="1"/>
-    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.85546875" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="11" max="11" width="3.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="13.140625" customWidth="1"/>
+    <col min="18" max="18" width="3.85546875" customWidth="1"/>
+    <col min="19" max="19" width="7.42578125" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="22" max="22" width="3.85546875" customWidth="1"/>
+    <col min="23" max="23" width="6.85546875" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" style="5" customWidth="1"/>
+    <col min="26" max="26" width="3.85546875" customWidth="1"/>
+    <col min="27" max="27" width="6.7109375" style="25" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="25" customWidth="1"/>
+    <col min="29" max="29" width="7.85546875" style="25" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" style="25" customWidth="1"/>
+    <col min="31" max="31" width="22.5703125" style="25" customWidth="1"/>
+    <col min="32" max="33" width="13.140625" style="25" customWidth="1"/>
+    <col min="34" max="34" width="3.85546875" customWidth="1"/>
+    <col min="35" max="35" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:22" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:37" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="17"/>
-      <c r="I4" s="9" t="s">
+      <c r="F4" s="17"/>
+      <c r="H4" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="M4" s="17"/>
       <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="Q4" s="9" t="s">
+      <c r="P4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="T4" s="9" t="s">
+      <c r="Q4" s="17"/>
+      <c r="S4" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="U4" s="9"/>
-      <c r="V4" s="17"/>
-    </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="T4" s="9"/>
+      <c r="U4" s="17"/>
+      <c r="W4" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="19"/>
+      <c r="AA4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AI4" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="AJ4" s="20"/>
+      <c r="AK4" s="20"/>
+    </row>
+    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>146</v>
       </c>
@@ -1945,46 +2210,82 @@
         <v>4</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="AA5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" s="7" t="s">
+      <c r="AB5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="R5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="T5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="V5" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="AJ5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -1997,47 +2298,83 @@
       <c r="E6" s="10">
         <v>23540</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="2">
+      <c r="H6" s="2">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="3">
         <v>9850884556</v>
       </c>
-      <c r="M6" s="2">
+      <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="M6" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>93</v>
+      </c>
+      <c r="S6" s="2">
+        <v>1</v>
       </c>
       <c r="T6" s="2">
         <v>1</v>
       </c>
       <c r="U6" s="2">
+        <v>7032300034</v>
+      </c>
+      <c r="W6" s="2">
         <v>1</v>
       </c>
-      <c r="V6" s="2">
-        <v>7032300034</v>
-      </c>
-    </row>
-    <row r="7" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE6" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2050,47 +2387,83 @@
       <c r="E7" s="10">
         <v>23675</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I7" s="2">
+      <c r="H7" s="2">
         <v>20</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="3">
+      <c r="J7" s="3">
         <v>7070675410</v>
       </c>
-      <c r="M7" s="2">
+      <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="M7" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="P7" s="2">
         <v>2</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>94</v>
+      </c>
+      <c r="S7" s="2">
+        <v>2</v>
       </c>
       <c r="T7" s="2">
         <v>2</v>
       </c>
       <c r="U7" s="2">
+        <v>7032300039</v>
+      </c>
+      <c r="W7" s="2">
         <v>2</v>
       </c>
-      <c r="V7" s="2">
-        <v>7032300039</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE7" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>74</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2103,47 +2476,83 @@
       <c r="E8" s="10">
         <v>23675</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="I8" s="2">
+      <c r="H8" s="2">
         <v>30</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J8" s="3">
         <v>9790771220</v>
       </c>
-      <c r="M8" s="2">
+      <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="M8" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="P8" s="2">
         <v>3</v>
       </c>
-      <c r="R8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>95</v>
+      </c>
+      <c r="S8" s="2">
+        <v>3</v>
       </c>
       <c r="T8" s="2">
         <v>3</v>
       </c>
       <c r="U8" s="2">
+        <v>7032300050</v>
+      </c>
+      <c r="W8" s="2">
         <v>3</v>
       </c>
-      <c r="V8" s="2">
-        <v>7032300050</v>
-      </c>
-    </row>
-    <row r="9" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X8" s="2">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>2018</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -2156,47 +2565,83 @@
       <c r="E9" s="10">
         <v>24046</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="2">
+      <c r="H9" s="2">
         <v>40</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J9" s="3">
         <v>8080118552</v>
       </c>
-      <c r="M9" s="2">
+      <c r="L9" s="2">
         <v>4</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="P9" s="2">
         <v>4</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>96</v>
+      </c>
+      <c r="S9" s="2">
+        <v>4</v>
       </c>
       <c r="T9" s="2">
         <v>4</v>
       </c>
       <c r="U9" s="2">
+        <v>7032300027</v>
+      </c>
+      <c r="W9" s="2">
         <v>4</v>
       </c>
-      <c r="V9" s="2">
-        <v>7032300027</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X9" s="2">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="AE9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2209,32 +2654,68 @@
       <c r="E10" s="10">
         <v>23754</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M10" s="2">
+      <c r="L10" s="2">
         <v>5</v>
       </c>
+      <c r="M10" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="N10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="O10" s="11" t="s">
         <v>99</v>
+      </c>
+      <c r="S10" s="2">
+        <v>5</v>
       </c>
       <c r="T10" s="2">
         <v>5</v>
       </c>
       <c r="U10" s="2">
+        <v>7032300001</v>
+      </c>
+      <c r="W10" s="2">
         <v>5</v>
       </c>
-      <c r="V10" s="2">
-        <v>7032300001</v>
-      </c>
-    </row>
-    <row r="11" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X10" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE10" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AK10" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -2247,32 +2728,68 @@
       <c r="E11" s="10">
         <v>24077</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="2">
+      <c r="L11" s="2">
         <v>6</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="M11" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="S11" s="2">
+        <v>6</v>
       </c>
       <c r="T11" s="2">
         <v>6</v>
       </c>
       <c r="U11" s="2">
+        <v>7032300079</v>
+      </c>
+      <c r="W11" s="2">
         <v>6</v>
       </c>
-      <c r="V11" s="2">
-        <v>7032300079</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X11" s="2">
+        <v>6</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>6</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE11" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>64</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>2019</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ11" s="2">
+        <v>6</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -2285,32 +2802,68 @@
       <c r="E12" s="10">
         <v>22264</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="2">
+      <c r="L12" s="2">
         <v>7</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="M12" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="S12" s="2">
+        <v>7</v>
       </c>
       <c r="T12" s="2">
         <v>7</v>
       </c>
       <c r="U12" s="2">
+        <v>7032300081</v>
+      </c>
+      <c r="W12" s="2">
         <v>7</v>
       </c>
-      <c r="V12" s="2">
-        <v>7032300081</v>
-      </c>
-    </row>
-    <row r="13" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X12" s="2">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE12" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -2323,32 +2876,68 @@
       <c r="E13" s="10">
         <v>22279</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="M13" s="2">
+      <c r="L13" s="2">
         <v>8</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="M13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="S13" s="2">
+        <v>8</v>
       </c>
       <c r="T13" s="2">
         <v>8</v>
       </c>
       <c r="U13" s="2">
+        <v>7032300054</v>
+      </c>
+      <c r="W13" s="2">
         <v>8</v>
       </c>
-      <c r="V13" s="2">
-        <v>7032300054</v>
-      </c>
-    </row>
-    <row r="14" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X13" s="2">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE13" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -2361,32 +2950,68 @@
       <c r="E14" s="10">
         <v>30250</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="2">
+      <c r="L14" s="2">
         <v>9</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="S14" s="2">
+        <v>9</v>
       </c>
       <c r="T14" s="2">
         <v>9</v>
       </c>
       <c r="U14" s="2">
+        <v>7032300059</v>
+      </c>
+      <c r="W14" s="2">
         <v>9</v>
       </c>
-      <c r="V14" s="2">
-        <v>7032300059</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X14" s="2">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>3</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE14" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>2017</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -2399,32 +3024,68 @@
       <c r="E15" s="10">
         <v>30615</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="M15" s="2">
+      <c r="L15" s="2">
         <v>10</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="M15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>106</v>
+      </c>
+      <c r="S15" s="2">
+        <v>10</v>
       </c>
       <c r="T15" s="2">
         <v>10</v>
       </c>
       <c r="U15" s="2">
+        <v>7032300086</v>
+      </c>
+      <c r="W15" s="2">
         <v>10</v>
       </c>
-      <c r="V15" s="2">
-        <v>7032300086</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X15" s="2">
+        <v>10</v>
+      </c>
+      <c r="Y15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE15" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>58</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -2437,32 +3098,68 @@
       <c r="E16" s="10">
         <v>30985</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="M16" s="2">
+      <c r="L16" s="2">
         <v>11</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="M16" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="S16" s="2">
+        <v>11</v>
       </c>
       <c r="T16" s="2">
         <v>11</v>
       </c>
       <c r="U16" s="2">
+        <v>7032300082</v>
+      </c>
+      <c r="W16" s="2">
         <v>11</v>
       </c>
-      <c r="V16" s="2">
-        <v>7032300082</v>
-      </c>
-    </row>
-    <row r="17" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X16" s="2">
+        <v>11</v>
+      </c>
+      <c r="Y16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE16" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -2475,32 +3172,68 @@
       <c r="E17" s="10">
         <v>31016</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="2">
+      <c r="L17" s="2">
         <v>12</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="M17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>106</v>
+      </c>
+      <c r="S17" s="2">
+        <v>12</v>
       </c>
       <c r="T17" s="2">
         <v>12</v>
       </c>
       <c r="U17" s="2">
+        <v>7032300042</v>
+      </c>
+      <c r="W17" s="2">
         <v>12</v>
       </c>
-      <c r="V17" s="2">
-        <v>7032300042</v>
-      </c>
-    </row>
-    <row r="18" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X17" s="2">
+        <v>12</v>
+      </c>
+      <c r="Y17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AC17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE17" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>2016</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -2513,32 +3246,68 @@
       <c r="E18" s="10">
         <v>31382</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="M18" s="2">
+      <c r="L18" s="2">
         <v>13</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="M18" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>103</v>
+      </c>
+      <c r="S18" s="2">
+        <v>13</v>
       </c>
       <c r="T18" s="2">
         <v>13</v>
       </c>
       <c r="U18" s="2">
+        <v>7032300055</v>
+      </c>
+      <c r="W18" s="2">
         <v>13</v>
       </c>
-      <c r="V18" s="2">
-        <v>7032300055</v>
-      </c>
-    </row>
-    <row r="19" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X18" s="2">
+        <v>13</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE18" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>2008</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -2551,32 +3320,68 @@
       <c r="E19" s="10">
         <v>31761</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M19" s="2">
+      <c r="L19" s="2">
         <v>14</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="M19" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>98</v>
+      </c>
+      <c r="S19" s="2">
+        <v>14</v>
       </c>
       <c r="T19" s="2">
         <v>14</v>
       </c>
       <c r="U19" s="2">
+        <v>7032300013</v>
+      </c>
+      <c r="W19" s="2">
         <v>14</v>
       </c>
-      <c r="V19" s="2">
-        <v>7032300013</v>
-      </c>
-    </row>
-    <row r="20" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X19" s="2">
+        <v>14</v>
+      </c>
+      <c r="Y19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>14</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE19" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>14</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>14</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="20" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -2589,32 +3394,68 @@
       <c r="E20" s="10">
         <v>32141</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="M20" s="2">
+      <c r="L20" s="2">
         <v>15</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="M20" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="S20" s="2">
+        <v>15</v>
       </c>
       <c r="T20" s="2">
         <v>15</v>
       </c>
       <c r="U20" s="2">
+        <v>7032300099</v>
+      </c>
+      <c r="W20" s="2">
         <v>15</v>
       </c>
-      <c r="V20" s="2">
-        <v>7032300099</v>
-      </c>
-    </row>
-    <row r="21" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X20" s="2">
+        <v>15</v>
+      </c>
+      <c r="Y20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE20" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>2014</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -2627,32 +3468,68 @@
       <c r="E21" s="10">
         <v>24077</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="2">
+      <c r="L21" s="2">
         <v>16</v>
       </c>
+      <c r="M21" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="N21" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" s="11" t="s">
         <v>99</v>
+      </c>
+      <c r="S21" s="2">
+        <v>16</v>
       </c>
       <c r="T21" s="2">
         <v>16</v>
       </c>
       <c r="U21" s="2">
+        <v>7032300023</v>
+      </c>
+      <c r="W21" s="2">
         <v>16</v>
       </c>
-      <c r="V21" s="2">
-        <v>7032300023</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X21" s="2">
+        <v>16</v>
+      </c>
+      <c r="Y21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>16</v>
+      </c>
+      <c r="AB21" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE21" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>2009</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>16</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>16</v>
+      </c>
+      <c r="AK21" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -2665,32 +3542,68 @@
       <c r="E22" s="10">
         <v>30250</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M22" s="2">
+      <c r="L22" s="2">
         <v>17</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="M22" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="S22" s="2">
+        <v>17</v>
       </c>
       <c r="T22" s="2">
         <v>17</v>
       </c>
       <c r="U22" s="2">
+        <v>7032300084</v>
+      </c>
+      <c r="W22" s="2">
         <v>17</v>
       </c>
-      <c r="V22" s="2">
-        <v>7032300084</v>
-      </c>
-    </row>
-    <row r="23" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X22" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>17</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>17</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>17</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -2703,32 +3616,68 @@
       <c r="E23" s="10">
         <v>23540</v>
       </c>
-      <c r="F23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="2">
+      <c r="L23" s="2">
         <v>18</v>
       </c>
+      <c r="M23" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="N23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" s="11" t="s">
         <v>99</v>
+      </c>
+      <c r="S23" s="2">
+        <v>18</v>
       </c>
       <c r="T23" s="2">
         <v>18</v>
       </c>
       <c r="U23" s="2">
+        <v>7032300011</v>
+      </c>
+      <c r="W23" s="2">
         <v>18</v>
       </c>
-      <c r="V23" s="2">
-        <v>7032300011</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X23" s="2">
+        <v>18</v>
+      </c>
+      <c r="Y23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>18</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>6</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE23" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>2015</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>18</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>18</v>
+      </c>
+      <c r="AK23" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -2741,32 +3690,68 @@
       <c r="E24" s="10">
         <v>23328</v>
       </c>
-      <c r="F24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="M24" s="2">
+      <c r="L24" s="2">
         <v>19</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="M24" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>98</v>
+      </c>
+      <c r="S24" s="2">
+        <v>19</v>
       </c>
       <c r="T24" s="2">
         <v>19</v>
       </c>
       <c r="U24" s="2">
+        <v>7032300066</v>
+      </c>
+      <c r="W24" s="2">
         <v>19</v>
       </c>
-      <c r="V24" s="2">
-        <v>7032300066</v>
-      </c>
-    </row>
-    <row r="25" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="X24" s="2">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE24" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>2011</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>19</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>19</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25" spans="2:37" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -2779,312 +3764,1501 @@
       <c r="E25" s="10">
         <v>22857</v>
       </c>
-      <c r="F25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M25" s="2">
+      <c r="L25" s="2">
         <v>20</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="M25" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>102</v>
+      </c>
+      <c r="S25" s="2">
+        <v>20</v>
       </c>
       <c r="T25" s="2">
         <v>20</v>
       </c>
       <c r="U25" s="2">
+        <v>7032300096</v>
+      </c>
+      <c r="W25" s="2">
         <v>20</v>
       </c>
-      <c r="V25" s="2">
-        <v>7032300096</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE25" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF25" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>2013</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="14"/>
-      <c r="M26" s="2">
+      <c r="F26" s="14"/>
+      <c r="L26" s="2">
         <v>21</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="M26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="S26" s="2">
+        <v>21</v>
+      </c>
       <c r="T26" s="2">
+        <v>1</v>
+      </c>
+      <c r="U26" s="2">
+        <v>7032300034</v>
+      </c>
+      <c r="W26" s="13"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="16"/>
+      <c r="AA26" s="2">
         <v>21</v>
       </c>
-      <c r="U26" s="2">
-        <v>1</v>
-      </c>
-      <c r="V26" s="2">
-        <v>7032300034</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB26" s="2">
+        <v>7</v>
+      </c>
+      <c r="AC26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE26" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF26" s="2">
+        <v>97</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="AI26" s="13"/>
+      <c r="AJ26" s="14"/>
+    </row>
+    <row r="27" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="14"/>
-      <c r="M27" s="2">
+      <c r="F27" s="14"/>
+      <c r="L27" s="2">
         <v>22</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="M27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="S27" s="2">
+        <v>22</v>
+      </c>
       <c r="T27" s="2">
+        <v>2</v>
+      </c>
+      <c r="U27" s="2">
+        <v>7032500039</v>
+      </c>
+      <c r="W27" s="13"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="16"/>
+      <c r="AA27" s="2">
         <v>22</v>
       </c>
-      <c r="U27" s="2">
-        <v>2</v>
-      </c>
-      <c r="V27" s="2">
-        <v>7032500039</v>
-      </c>
-    </row>
-    <row r="28" spans="2:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB27" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE27" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>2010</v>
+      </c>
+      <c r="AI27" s="13"/>
+      <c r="AJ27" s="14"/>
+    </row>
+    <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="14"/>
-      <c r="M28" s="2">
+      <c r="F28" s="14"/>
+      <c r="L28" s="2">
         <v>23</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="M28" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="S28" s="2">
+        <v>23</v>
+      </c>
       <c r="T28" s="2">
+        <v>3</v>
+      </c>
+      <c r="U28" s="2">
+        <v>7032700050</v>
+      </c>
+      <c r="W28" s="13"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="16"/>
+      <c r="AA28" s="2">
         <v>23</v>
       </c>
-      <c r="U28" s="2">
-        <v>3</v>
-      </c>
-      <c r="V28" s="2">
-        <v>7032700050</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AB28" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE28" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF28" s="2">
+        <v>467</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>2012</v>
+      </c>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="14"/>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="S29" s="2">
+        <v>24</v>
+      </c>
       <c r="T29" s="2">
+        <v>4</v>
+      </c>
+      <c r="U29" s="2">
+        <v>7032100027</v>
+      </c>
+      <c r="AA29" s="2">
         <v>24</v>
       </c>
-      <c r="U29" s="2">
-        <v>4</v>
-      </c>
-      <c r="V29" s="2">
-        <v>7032100027</v>
-      </c>
-    </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AB29" s="2">
+        <v>8</v>
+      </c>
+      <c r="AC29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE29" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>2016</v>
+      </c>
+      <c r="AI29" s="13"/>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="S30" s="2">
+        <v>25</v>
+      </c>
       <c r="T30" s="2">
+        <v>5</v>
+      </c>
+      <c r="U30" s="2">
+        <v>7032300801</v>
+      </c>
+      <c r="AA30" s="2">
         <v>25</v>
       </c>
-      <c r="U30" s="2">
-        <v>5</v>
-      </c>
-      <c r="V30" s="2">
-        <v>7032300801</v>
-      </c>
-    </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AB30" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE30" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>98</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E31"/>
-      <c r="F31"/>
+      <c r="S31" s="2">
+        <v>26</v>
+      </c>
       <c r="T31" s="2">
+        <v>6</v>
+      </c>
+      <c r="U31" s="2">
+        <v>7032300071</v>
+      </c>
+      <c r="Y31"/>
+      <c r="AA31" s="2">
         <v>26</v>
       </c>
-      <c r="U31" s="2">
-        <v>6</v>
-      </c>
-      <c r="V31" s="2">
-        <v>7032300071</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="AB31" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="E32"/>
-      <c r="F32"/>
+      <c r="S32" s="2">
+        <v>27</v>
+      </c>
       <c r="T32" s="2">
+        <v>7</v>
+      </c>
+      <c r="U32" s="2">
+        <v>8032300081</v>
+      </c>
+      <c r="Y32"/>
+      <c r="AA32" s="2">
         <v>27</v>
       </c>
-      <c r="U32" s="2">
-        <v>7</v>
-      </c>
-      <c r="V32" s="2">
-        <v>8032300081</v>
-      </c>
-    </row>
-    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AB32" s="2">
+        <v>9</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE32" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E33"/>
-      <c r="F33"/>
+      <c r="S33" s="2">
+        <v>28</v>
+      </c>
       <c r="T33" s="2">
+        <v>8</v>
+      </c>
+      <c r="U33" s="2">
+        <v>8732300054</v>
+      </c>
+      <c r="Y33"/>
+      <c r="AA33" s="2">
         <v>28</v>
       </c>
-      <c r="U33" s="2">
-        <v>8</v>
-      </c>
-      <c r="V33" s="2">
-        <v>8732300054</v>
-      </c>
-    </row>
-    <row r="34" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AB33" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE33" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>65</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="34" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E34"/>
-      <c r="F34"/>
+      <c r="S34" s="2">
+        <v>29</v>
+      </c>
       <c r="T34" s="2">
+        <v>9</v>
+      </c>
+      <c r="U34" s="2">
+        <v>9932300059</v>
+      </c>
+      <c r="Y34"/>
+      <c r="AA34" s="2">
         <v>29</v>
       </c>
-      <c r="U34" s="2">
-        <v>9</v>
-      </c>
-      <c r="V34" s="2">
-        <v>9932300059</v>
-      </c>
-    </row>
-    <row r="35" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AB34" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE34" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E35"/>
-      <c r="F35"/>
+      <c r="S35" s="2">
+        <v>30</v>
+      </c>
       <c r="T35" s="2">
+        <v>10</v>
+      </c>
+      <c r="U35" s="2">
+        <v>9732300086</v>
+      </c>
+      <c r="Y35"/>
+      <c r="AA35" s="2">
         <v>30</v>
       </c>
-      <c r="U35" s="2">
+      <c r="AB35" s="2">
         <v>10</v>
       </c>
-      <c r="V35" s="2">
-        <v>9732300086</v>
-      </c>
-    </row>
-    <row r="36" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AC35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE35" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>61</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="5:33" x14ac:dyDescent="0.25">
       <c r="E36"/>
-      <c r="F36"/>
+      <c r="S36" s="2">
+        <v>31</v>
+      </c>
       <c r="T36" s="2">
+        <v>11</v>
+      </c>
+      <c r="U36" s="2">
+        <v>9772300082</v>
+      </c>
+      <c r="Y36"/>
+      <c r="AA36" s="2">
         <v>31</v>
       </c>
-      <c r="U36" s="2">
+      <c r="AB36" s="2">
         <v>11</v>
       </c>
-      <c r="V36" s="2">
-        <v>9772300082</v>
-      </c>
-    </row>
-    <row r="37" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AC36" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE36" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>62</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="37" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S37" s="2">
+        <v>32</v>
+      </c>
       <c r="T37" s="2">
+        <v>12</v>
+      </c>
+      <c r="U37" s="2">
+        <v>9832306042</v>
+      </c>
+      <c r="AA37" s="2">
         <v>32</v>
       </c>
-      <c r="U37" s="2">
+      <c r="AB37" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC37" s="3">
         <v>12</v>
       </c>
-      <c r="V37" s="2">
-        <v>9832306042</v>
-      </c>
-    </row>
-    <row r="38" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="AD37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE37" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>63</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="38" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S38" s="2">
+        <v>33</v>
+      </c>
       <c r="T38" s="2">
+        <v>13</v>
+      </c>
+      <c r="U38" s="2">
+        <v>8832356055</v>
+      </c>
+      <c r="AA38" s="2">
         <v>33</v>
       </c>
-      <c r="U38" s="2">
+      <c r="AB38" s="2">
+        <v>11</v>
+      </c>
+      <c r="AC38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE38" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S39" s="2">
+        <v>34</v>
+      </c>
+      <c r="T39" s="2">
+        <v>14</v>
+      </c>
+      <c r="U39" s="2">
+        <v>7732398013</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>34</v>
+      </c>
+      <c r="AB39" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE39" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S40" s="2">
+        <v>35</v>
+      </c>
+      <c r="T40" s="2">
+        <v>15</v>
+      </c>
+      <c r="U40" s="2">
+        <v>8932393099</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB40" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE40" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="41" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S41" s="2">
+        <v>36</v>
+      </c>
+      <c r="T41" s="2">
+        <v>16</v>
+      </c>
+      <c r="U41" s="2">
+        <v>7932305623</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="2">
+        <v>12</v>
+      </c>
+      <c r="AC41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE41" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="42" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S42" s="2">
+        <v>37</v>
+      </c>
+      <c r="T42" s="2">
+        <v>17</v>
+      </c>
+      <c r="U42" s="2">
+        <v>7832303384</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB42" s="2">
         <v>13</v>
       </c>
-      <c r="V38" s="2">
-        <v>8832356055</v>
-      </c>
-    </row>
-    <row r="39" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="T39" s="2">
-        <v>34</v>
-      </c>
-      <c r="U39" s="2">
+      <c r="AC42" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE42" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF42" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="43" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S43" s="2">
+        <v>38</v>
+      </c>
+      <c r="T43" s="2">
+        <v>18</v>
+      </c>
+      <c r="U43" s="2">
+        <v>8032301231</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB43" s="2">
+        <v>13</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE43" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="44" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S44" s="2">
+        <v>39</v>
+      </c>
+      <c r="T44" s="2">
+        <v>19</v>
+      </c>
+      <c r="U44" s="2">
+        <v>9032356766</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB44" s="2">
+        <v>13</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE44" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="S45" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" s="2">
+        <v>20</v>
+      </c>
+      <c r="U45" s="2">
+        <v>7832356196</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" s="2">
         <v>14</v>
       </c>
-      <c r="V39" s="2">
-        <v>7732398013</v>
-      </c>
-    </row>
-    <row r="40" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="T40" s="2">
-        <v>35</v>
-      </c>
-      <c r="U40" s="2">
+      <c r="AC45" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE45" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>67</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="46" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AA46" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE46" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>87</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="47" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AA47" s="2">
+        <v>42</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>14</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE47" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AA48" s="2">
+        <v>43</v>
+      </c>
+      <c r="AB48" s="2">
         <v>15</v>
       </c>
-      <c r="V40" s="2">
-        <v>8932393099</v>
-      </c>
-    </row>
-    <row r="41" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="T41" s="2">
-        <v>36</v>
-      </c>
-      <c r="U41" s="2">
+      <c r="AC48" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE48" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA49" s="2">
+        <v>44</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE49" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF49" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG49" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="50" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA50" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>15</v>
+      </c>
+      <c r="AC50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE50" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>65</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA51" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB51" s="2">
         <v>16</v>
       </c>
-      <c r="V41" s="2">
-        <v>7932305623</v>
-      </c>
-    </row>
-    <row r="42" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="T42" s="2">
-        <v>37</v>
-      </c>
-      <c r="U42" s="2">
+      <c r="AC51" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE51" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="52" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA52" s="2">
+        <v>47</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE52" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>56</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA53" s="2">
+        <v>48</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>16</v>
+      </c>
+      <c r="AC53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE53" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA54" s="2">
+        <v>49</v>
+      </c>
+      <c r="AB54" s="2">
         <v>17</v>
       </c>
-      <c r="V42" s="2">
-        <v>7832303384</v>
-      </c>
-    </row>
-    <row r="43" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="T43" s="2">
-        <v>38</v>
-      </c>
-      <c r="U43" s="2">
+      <c r="AC54" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE54" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF54" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="55" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA55" s="2">
+        <v>50</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE55" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="AF55" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA56" s="2">
+        <v>51</v>
+      </c>
+      <c r="AB56" s="2">
+        <v>17</v>
+      </c>
+      <c r="AC56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE56" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF56" s="2">
+        <v>68</v>
+      </c>
+      <c r="AG56" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA57" s="2">
+        <v>52</v>
+      </c>
+      <c r="AB57" s="2">
         <v>18</v>
       </c>
-      <c r="V43" s="2">
-        <v>8032301231</v>
-      </c>
-    </row>
-    <row r="44" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="T44" s="2">
-        <v>39</v>
-      </c>
-      <c r="U44" s="2">
+      <c r="AC57" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE57" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF57" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG57" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="58" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA58" s="2">
+        <v>53</v>
+      </c>
+      <c r="AB58" s="2">
+        <v>18</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD58" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE58" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF58" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG58" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="59" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA59" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB59" s="2">
+        <v>18</v>
+      </c>
+      <c r="AC59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE59" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="AF59" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG59" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA60" s="2">
+        <v>55</v>
+      </c>
+      <c r="AB60" s="2">
         <v>19</v>
       </c>
-      <c r="V44" s="2">
-        <v>9032356766</v>
-      </c>
-    </row>
-    <row r="45" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="T45" s="2">
-        <v>40</v>
-      </c>
-      <c r="U45" s="2">
+      <c r="AC60" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE60" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="AF60" s="2">
+        <v>69</v>
+      </c>
+      <c r="AG60" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="61" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA61" s="2">
+        <v>56</v>
+      </c>
+      <c r="AB61" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE61" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF61" s="2">
+        <v>60</v>
+      </c>
+      <c r="AG61" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="62" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA62" s="2">
+        <v>57</v>
+      </c>
+      <c r="AB62" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE62" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF62" s="2">
+        <v>61</v>
+      </c>
+      <c r="AG62" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA63" s="2">
+        <v>58</v>
+      </c>
+      <c r="AB63" s="2">
         <v>20</v>
       </c>
-      <c r="V45" s="2">
-        <v>7832356196</v>
-      </c>
+      <c r="AC63" s="3">
+        <v>10</v>
+      </c>
+      <c r="AD63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE63" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="64" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA64" s="2">
+        <v>59</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>12</v>
+      </c>
+      <c r="AD64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AE64" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>83</v>
+      </c>
+      <c r="AG64" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="65" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA65" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC65" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE65" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF65" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG65" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA66" s="13"/>
+      <c r="AB66" s="13"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="24"/>
+      <c r="AG66" s="13"/>
+    </row>
+    <row r="67" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA67" s="13"/>
+      <c r="AB67" s="13"/>
+      <c r="AC67" s="22"/>
+      <c r="AD67" s="23"/>
+      <c r="AE67" s="24"/>
+      <c r="AG67" s="13"/>
+    </row>
+    <row r="68" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA68" s="13"/>
+      <c r="AB68" s="13"/>
+      <c r="AC68" s="22"/>
+      <c r="AD68" s="23"/>
+      <c r="AE68" s="24"/>
+      <c r="AG68" s="13"/>
+    </row>
+    <row r="69" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA69" s="13"/>
+      <c r="AB69" s="13"/>
+      <c r="AC69" s="22"/>
+      <c r="AD69" s="23"/>
+      <c r="AE69" s="24"/>
+      <c r="AG69" s="13"/>
+    </row>
+    <row r="70" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA70" s="13"/>
+      <c r="AB70" s="13"/>
+      <c r="AC70" s="22"/>
+      <c r="AD70" s="23"/>
+      <c r="AE70" s="24"/>
+      <c r="AG70" s="13"/>
+    </row>
+    <row r="71" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA71" s="13"/>
+      <c r="AB71" s="13"/>
+      <c r="AC71" s="22"/>
+      <c r="AD71" s="23"/>
+      <c r="AE71" s="24"/>
+      <c r="AG71" s="13"/>
+    </row>
+    <row r="72" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA72" s="13"/>
+      <c r="AB72" s="13"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="23"/>
+      <c r="AE72" s="24"/>
+      <c r="AG72" s="13"/>
+    </row>
+    <row r="73" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA73" s="13"/>
+      <c r="AB73" s="13"/>
+      <c r="AC73" s="22"/>
+      <c r="AD73" s="23"/>
+      <c r="AE73" s="24"/>
+      <c r="AG73" s="13"/>
+    </row>
+    <row r="74" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA74" s="13"/>
+      <c r="AB74" s="13"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="23"/>
+      <c r="AE74" s="24"/>
+      <c r="AG74" s="13"/>
+    </row>
+    <row r="75" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA75" s="13"/>
+      <c r="AB75" s="13"/>
+      <c r="AC75" s="22"/>
+      <c r="AD75" s="23"/>
+      <c r="AE75" s="24"/>
+      <c r="AG75" s="13"/>
+    </row>
+    <row r="76" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA76" s="13"/>
+      <c r="AB76" s="13"/>
+      <c r="AC76" s="22"/>
+      <c r="AD76" s="23"/>
+      <c r="AE76" s="24"/>
+      <c r="AG76" s="13"/>
+    </row>
+    <row r="77" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA77" s="13"/>
+      <c r="AB77" s="13"/>
+      <c r="AC77" s="22"/>
+      <c r="AD77" s="23"/>
+      <c r="AE77" s="24"/>
+      <c r="AG77" s="13"/>
+    </row>
+    <row r="78" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA78" s="13"/>
+      <c r="AB78" s="13"/>
+      <c r="AC78" s="22"/>
+      <c r="AD78" s="23"/>
+      <c r="AE78" s="24"/>
+      <c r="AG78" s="13"/>
+    </row>
+    <row r="79" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA79" s="13"/>
+      <c r="AB79" s="13"/>
+      <c r="AC79" s="22"/>
+      <c r="AD79" s="23"/>
+      <c r="AE79" s="24"/>
+      <c r="AG79" s="13"/>
+    </row>
+    <row r="80" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA80" s="13"/>
+      <c r="AB80" s="13"/>
+      <c r="AC80" s="22"/>
+      <c r="AD80" s="23"/>
+      <c r="AE80" s="24"/>
+      <c r="AG80" s="13"/>
+    </row>
+    <row r="81" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA81" s="13"/>
+      <c r="AB81" s="13"/>
+      <c r="AC81" s="22"/>
+      <c r="AD81" s="23"/>
+      <c r="AE81" s="24"/>
+      <c r="AG81" s="13"/>
+    </row>
+    <row r="82" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA82" s="13"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="22"/>
+      <c r="AD82" s="23"/>
+      <c r="AE82" s="24"/>
+      <c r="AG82" s="13"/>
+    </row>
+    <row r="83" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA83" s="13"/>
+      <c r="AB83" s="26"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="23"/>
+      <c r="AE83" s="24"/>
+      <c r="AG83" s="13"/>
+    </row>
+    <row r="84" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA84" s="13"/>
+      <c r="AB84" s="26"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="23"/>
+      <c r="AE84" s="24"/>
+      <c r="AG84" s="13"/>
+    </row>
+    <row r="85" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA85" s="13"/>
+      <c r="AB85" s="26"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="23"/>
+      <c r="AE85" s="24"/>
+      <c r="AG85" s="13"/>
+    </row>
+    <row r="86" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA86" s="13"/>
+      <c r="AB86" s="26"/>
+      <c r="AC86" s="22"/>
+      <c r="AD86" s="23"/>
+      <c r="AE86" s="24"/>
+      <c r="AG86" s="13"/>
+    </row>
+    <row r="87" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA87" s="13"/>
+      <c r="AB87" s="13"/>
+      <c r="AC87" s="22"/>
+      <c r="AD87" s="23"/>
+      <c r="AE87" s="24"/>
+      <c r="AG87" s="13"/>
+    </row>
+    <row r="88" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA88" s="26"/>
+      <c r="AB88" s="26"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="28"/>
+      <c r="AE88" s="29"/>
+      <c r="AG88" s="13"/>
+    </row>
+    <row r="89" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA89" s="26"/>
+      <c r="AB89" s="26"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="28"/>
+      <c r="AE89" s="29"/>
+      <c r="AG89" s="13"/>
+    </row>
+    <row r="90" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA90" s="26"/>
+      <c r="AB90" s="26"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="28"/>
+      <c r="AE90" s="29"/>
+      <c r="AG90" s="13"/>
+    </row>
+    <row r="91" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA91" s="26"/>
+      <c r="AB91" s="13"/>
+      <c r="AC91" s="22"/>
+      <c r="AD91" s="23"/>
+      <c r="AE91" s="24"/>
+      <c r="AG91" s="13"/>
+    </row>
+    <row r="92" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA92" s="26"/>
+      <c r="AB92" s="13"/>
+      <c r="AC92" s="22"/>
+      <c r="AD92" s="23"/>
+      <c r="AE92" s="24"/>
+      <c r="AG92" s="13"/>
+    </row>
+    <row r="93" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA93" s="26"/>
+      <c r="AB93" s="13"/>
+      <c r="AC93" s="22"/>
+      <c r="AD93" s="23"/>
+      <c r="AE93" s="24"/>
+      <c r="AG93" s="13"/>
+    </row>
+    <row r="94" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA94" s="26"/>
+      <c r="AB94" s="13"/>
+      <c r="AC94" s="22"/>
+      <c r="AD94" s="23"/>
+      <c r="AE94" s="24"/>
+      <c r="AG94" s="13"/>
+    </row>
+    <row r="95" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA95" s="26"/>
+      <c r="AB95" s="26"/>
+      <c r="AC95" s="22"/>
+      <c r="AD95" s="23"/>
+      <c r="AE95" s="24"/>
+      <c r="AG95" s="13"/>
+    </row>
+    <row r="96" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA96" s="26"/>
+      <c r="AB96" s="26"/>
+      <c r="AC96" s="22"/>
+      <c r="AD96" s="23"/>
+      <c r="AE96" s="24"/>
+      <c r="AG96" s="13"/>
+    </row>
+    <row r="97" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA97" s="26"/>
+      <c r="AB97" s="26"/>
+      <c r="AC97" s="22"/>
+      <c r="AD97" s="23"/>
+      <c r="AE97" s="24"/>
+      <c r="AG97" s="13"/>
+    </row>
+    <row r="98" spans="27:33" x14ac:dyDescent="0.25">
+      <c r="AA98" s="26"/>
+      <c r="AB98" s="26"/>
+      <c r="AD98" s="23"/>
+      <c r="AE98" s="24"/>
+      <c r="AG98" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:F4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
+++ b/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1136,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S36"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -2105,7 +2105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AK98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>

--- a/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
+++ b/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="221">
   <si>
     <t>Employee Table</t>
   </si>
@@ -679,15 +679,25 @@
   </si>
   <si>
     <t>rajesh</t>
+  </si>
+  <si>
+    <t>orders Table</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -737,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -760,13 +770,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -849,6 +885,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1136,7 +1187,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1167,9 +1218,9 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="8"/>
       <c r="J4" s="9" t="s">
         <v>97</v>
@@ -2103,10 +2154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:AK98"/>
+  <dimension ref="B4:AS98"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="AI24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AO27" sqref="AO27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2147,9 +2198,14 @@
     <col min="35" max="35" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="13.28515625" customWidth="1"/>
+    <col min="38" max="38" width="3.85546875" customWidth="1"/>
+    <col min="39" max="39" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.28515625" customWidth="1"/>
+    <col min="42" max="42" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:37" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2195,8 +2251,13 @@
       </c>
       <c r="AJ4" s="20"/>
       <c r="AK4" s="20"/>
-    </row>
-    <row r="5" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AM4" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN4" s="20"/>
+      <c r="AO4" s="20"/>
+    </row>
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>146</v>
       </c>
@@ -2284,8 +2345,20 @@
       <c r="AK5" s="7" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="6" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="6" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -2373,8 +2446,20 @@
       <c r="AK6" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="7" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO6" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2462,8 +2547,20 @@
       <c r="AK7" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AM7" s="2">
+        <v>2</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2551,8 +2648,20 @@
       <c r="AK8" s="3" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM8" s="2">
+        <v>3</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO8" s="34">
+        <v>43694</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -2640,8 +2749,20 @@
       <c r="AK9" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="10" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO9" s="34">
+        <v>43587</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="10" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2714,8 +2835,20 @@
       <c r="AK10" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="11" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM10" s="2">
+        <v>5</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO10" s="34">
+        <v>43588</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="11" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -2788,8 +2921,20 @@
       <c r="AK11" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="12" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AM11" s="2">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO11" s="34">
+        <v>43589</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -2862,8 +3007,20 @@
       <c r="AK12" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="13" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM12" s="2">
+        <v>7</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO12" s="34">
+        <v>43780</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -2936,8 +3093,21 @@
       <c r="AK13" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="14" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM13" s="2">
+        <v>8</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="34">
+        <v>43665</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>1270</v>
+      </c>
+      <c r="AS13" s="34"/>
+    </row>
+    <row r="14" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -3010,8 +3180,20 @@
       <c r="AK14" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM14" s="2">
+        <v>9</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO14" s="34">
+        <v>43562</v>
+      </c>
+      <c r="AP14" s="2">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -3084,8 +3266,20 @@
       <c r="AK15" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM15" s="2">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>7</v>
+      </c>
+      <c r="AO15" s="34">
+        <v>43748</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -3158,8 +3352,20 @@
       <c r="AK16" s="3" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AN16" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO16" s="34">
+        <v>43780</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -3232,8 +3438,20 @@
       <c r="AK17" s="3" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="18" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM17" s="2">
+        <v>12</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO17" s="34">
+        <v>43667</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="18" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -3306,8 +3524,20 @@
       <c r="AK18" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="19" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>13</v>
+      </c>
+      <c r="AO18" s="34">
+        <v>43771</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="19" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -3380,8 +3610,20 @@
       <c r="AK19" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="20" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM19" s="2">
+        <v>14</v>
+      </c>
+      <c r="AN19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO19" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -3454,8 +3696,20 @@
       <c r="AK20" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="21" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM20" s="2">
+        <v>15</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO20" s="34">
+        <v>43562</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -3528,8 +3782,20 @@
       <c r="AK21" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="22" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM21" s="2">
+        <v>16</v>
+      </c>
+      <c r="AN21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO21" s="34">
+        <v>43748</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="22" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -3602,8 +3868,20 @@
       <c r="AK22" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="23" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM22" s="2">
+        <v>17</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO22" s="34">
+        <v>43780</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="23" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -3676,8 +3954,20 @@
       <c r="AK23" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="24" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM23" s="2">
+        <v>18</v>
+      </c>
+      <c r="AN23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO23" s="34">
+        <v>43667</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -3750,8 +4040,20 @@
       <c r="AK24" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="25" spans="2:37" ht="30" x14ac:dyDescent="0.25">
+      <c r="AM24" s="2">
+        <v>19</v>
+      </c>
+      <c r="AN24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO24" s="34">
+        <v>43771</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -3824,8 +4126,20 @@
       <c r="AK25" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM25" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AO25" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP25" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -3875,8 +4189,20 @@
       </c>
       <c r="AI26" s="13"/>
       <c r="AJ26" s="14"/>
-    </row>
-    <row r="27" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM26" s="2">
+        <v>21</v>
+      </c>
+      <c r="AN26" s="30">
+        <v>8</v>
+      </c>
+      <c r="AO26" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP26" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="27" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -3926,8 +4252,20 @@
       </c>
       <c r="AI27" s="13"/>
       <c r="AJ27" s="14"/>
-    </row>
-    <row r="28" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM27" s="2">
+        <v>22</v>
+      </c>
+      <c r="AN27" s="30">
+        <v>10</v>
+      </c>
+      <c r="AO27" s="34">
+        <v>43771</v>
+      </c>
+      <c r="AP27" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="28" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -3977,8 +4315,20 @@
       </c>
       <c r="AI28" s="13"/>
       <c r="AJ28" s="14"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AM28" s="2">
+        <v>23</v>
+      </c>
+      <c r="AN28" s="30">
+        <v>4</v>
+      </c>
+      <c r="AO28" s="34">
+        <v>43757</v>
+      </c>
+      <c r="AP28" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
       <c r="S29" s="2">
         <v>24</v>
       </c>
@@ -4010,8 +4360,20 @@
         <v>2016</v>
       </c>
       <c r="AI29" s="13"/>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AM29" s="2">
+        <v>24</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO29" s="34">
+        <v>43685</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
       <c r="S30" s="2">
         <v>25</v>
       </c>
@@ -4042,8 +4404,20 @@
       <c r="AG30" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AM30" s="2">
+        <v>25</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="34">
+        <v>43631</v>
+      </c>
+      <c r="AP30" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
       <c r="E31"/>
       <c r="S31" s="2">
         <v>26</v>
@@ -4076,8 +4450,20 @@
       <c r="AG31" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="AM31" s="2">
+        <v>26</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO31" s="34">
+        <v>43498</v>
+      </c>
+      <c r="AP31" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
       <c r="E32"/>
       <c r="S32" s="2">
         <v>27</v>
@@ -4110,8 +4496,20 @@
       <c r="AG32" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="33" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM32" s="2">
+        <v>27</v>
+      </c>
+      <c r="AN32" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO32" s="34">
+        <v>43698</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E33"/>
       <c r="S33" s="2">
         <v>28</v>
@@ -4144,8 +4542,20 @@
       <c r="AG33" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="34" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM33" s="2">
+        <v>28</v>
+      </c>
+      <c r="AN33" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO33" s="34">
+        <v>43498</v>
+      </c>
+      <c r="AP33" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E34"/>
       <c r="S34" s="2">
         <v>29</v>
@@ -4178,8 +4588,20 @@
       <c r="AG34" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="35" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM34" s="2">
+        <v>29</v>
+      </c>
+      <c r="AN34" s="2">
+        <v>12</v>
+      </c>
+      <c r="AO34" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP34" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E35"/>
       <c r="S35" s="2">
         <v>30</v>
@@ -4212,8 +4634,20 @@
       <c r="AG35" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="36" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM35" s="2">
+        <v>30</v>
+      </c>
+      <c r="AN35" s="2">
+        <v>6</v>
+      </c>
+      <c r="AO35" s="34">
+        <v>43656</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E36"/>
       <c r="S36" s="2">
         <v>31</v>
@@ -4246,8 +4680,20 @@
       <c r="AG36" s="2">
         <v>2011</v>
       </c>
-    </row>
-    <row r="37" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM36" s="2">
+        <v>31</v>
+      </c>
+      <c r="AN36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="34">
+        <v>43781</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S37" s="2">
         <v>32</v>
       </c>
@@ -4278,8 +4724,20 @@
       <c r="AG37" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="38" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM37" s="2">
+        <v>32</v>
+      </c>
+      <c r="AN37" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO37" s="34">
+        <v>43527</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S38" s="2">
         <v>33</v>
       </c>
@@ -4310,8 +4768,20 @@
       <c r="AG38" s="2">
         <v>2017</v>
       </c>
-    </row>
-    <row r="39" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM38" s="2">
+        <v>33</v>
+      </c>
+      <c r="AN38" s="2">
+        <v>7</v>
+      </c>
+      <c r="AO38" s="34">
+        <v>43639</v>
+      </c>
+      <c r="AP38" s="2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="39" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S39" s="2">
         <v>34</v>
       </c>
@@ -4342,8 +4812,20 @@
       <c r="AG39" s="2">
         <v>2010</v>
       </c>
-    </row>
-    <row r="40" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM39" s="2">
+        <v>34</v>
+      </c>
+      <c r="AN39" s="2">
+        <v>10</v>
+      </c>
+      <c r="AO39" s="34">
+        <v>43484</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S40" s="2">
         <v>35</v>
       </c>
@@ -4374,8 +4856,20 @@
       <c r="AG40" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="41" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM40" s="2">
+        <v>35</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>14</v>
+      </c>
+      <c r="AO40" s="34">
+        <v>43748</v>
+      </c>
+      <c r="AP40" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S41" s="2">
         <v>36</v>
       </c>
@@ -4406,8 +4900,20 @@
       <c r="AG41" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="42" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM41" s="2">
+        <v>36</v>
+      </c>
+      <c r="AN41" s="2">
+        <v>13</v>
+      </c>
+      <c r="AO41" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S42" s="2">
         <v>37</v>
       </c>
@@ -4438,8 +4944,20 @@
       <c r="AG42" s="2">
         <v>2012</v>
       </c>
-    </row>
-    <row r="43" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM42" s="2">
+        <v>37</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>4</v>
+      </c>
+      <c r="AO42" s="34">
+        <v>43639</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S43" s="2">
         <v>38</v>
       </c>
@@ -4470,8 +4988,20 @@
       <c r="AG43" s="2">
         <v>2014</v>
       </c>
-    </row>
-    <row r="44" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM43" s="31">
+        <v>38</v>
+      </c>
+      <c r="AN43" s="31">
+        <v>2</v>
+      </c>
+      <c r="AO43" s="34">
+        <v>43484</v>
+      </c>
+      <c r="AP43" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S44" s="2">
         <v>39</v>
       </c>
@@ -4502,8 +5032,20 @@
       <c r="AG44" s="2">
         <v>2018</v>
       </c>
-    </row>
-    <row r="45" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM44" s="2">
+        <v>39</v>
+      </c>
+      <c r="AN44" s="2">
+        <v>5</v>
+      </c>
+      <c r="AO44" s="34">
+        <v>43748</v>
+      </c>
+      <c r="AP44" s="33">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S45" s="2">
         <v>40</v>
       </c>
@@ -4534,8 +5076,20 @@
       <c r="AG45" s="2">
         <v>2013</v>
       </c>
-    </row>
-    <row r="46" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AM45" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN45" s="30">
+        <v>8</v>
+      </c>
+      <c r="AO45" s="34">
+        <v>43477</v>
+      </c>
+      <c r="AP45" s="33">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="5:42" x14ac:dyDescent="0.25">
       <c r="AA46" s="2">
         <v>41</v>
       </c>
@@ -4557,8 +5111,9 @@
       <c r="AG46" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="47" spans="5:33" x14ac:dyDescent="0.25">
+      <c r="AN46" s="32"/>
+    </row>
+    <row r="47" spans="5:42" x14ac:dyDescent="0.25">
       <c r="AA47" s="2">
         <v>42</v>
       </c>
@@ -4581,7 +5136,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="5:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:42" x14ac:dyDescent="0.25">
       <c r="AA48" s="2">
         <v>43</v>
       </c>

--- a/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
+++ b/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Databases\ERP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="ERP with PK-FK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -693,13 +688,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -965,7 +960,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,7 +995,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,21 +1172,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:S36"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1212,7 +1207,7 @@
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="21">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1232,7 @@
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1279,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="30">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -1331,7 +1326,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="30">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1378,7 +1373,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="30">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1425,7 +1420,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="30">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1472,7 +1467,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="30">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1504,7 +1499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="30">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1536,7 +1531,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="30">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1568,7 +1563,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="30">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1600,7 +1595,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="30">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1632,7 +1627,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="30">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1664,7 +1659,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="30">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1696,7 +1691,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="30">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -1728,7 +1723,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="30">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -1760,7 +1755,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="30">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -1792,7 +1787,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="30">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -1824,7 +1819,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="30">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -1856,7 +1851,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="30">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -1888,7 +1883,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="30">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -1920,7 +1915,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="30">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -1952,7 +1947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="30">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -1984,7 +1979,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="30" customHeight="1">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -2002,7 +1997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="30" customHeight="1">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2020,7 +2015,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="30" customHeight="1">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2038,7 +2033,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="C31" t="s">
         <v>125</v>
       </c>
@@ -2055,7 +2050,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="C32" t="s">
         <v>130</v>
       </c>
@@ -2075,7 +2070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8">
       <c r="C33" t="s">
         <v>135</v>
       </c>
@@ -2095,7 +2090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8">
       <c r="C34" t="s">
         <v>140</v>
       </c>
@@ -2115,7 +2110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8">
       <c r="C35" t="s">
         <v>143</v>
       </c>
@@ -2135,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8">
       <c r="E36"/>
       <c r="F36"/>
       <c r="H36">
@@ -2153,14 +2148,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:AS98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AO27" sqref="AO27"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -2205,7 +2200,7 @@
     <col min="42" max="42" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:45" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" ht="21">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2257,7 +2252,7 @@
       <c r="AN4" s="20"/>
       <c r="AO4" s="20"/>
     </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:45">
       <c r="B5" s="7" t="s">
         <v>146</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:45" ht="30">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -2459,7 +2454,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" ht="30">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2560,7 +2555,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2661,7 +2656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" ht="30">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -2762,7 +2757,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" ht="30">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2848,7 +2843,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:45" ht="30">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -2934,7 +2929,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:45">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -3020,7 +3015,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:45" ht="30">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -3107,7 +3102,7 @@
       </c>
       <c r="AS13" s="34"/>
     </row>
-    <row r="14" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:45" ht="30">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -3193,7 +3188,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:45" ht="30">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -3279,7 +3274,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:45" ht="30">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -3365,7 +3360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" ht="30">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -3451,7 +3446,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" ht="30">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -3537,7 +3532,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" ht="30">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -3623,7 +3618,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" ht="30">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -3709,7 +3704,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" ht="30">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -3795,7 +3790,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" ht="30">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -3881,7 +3876,7 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="23" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:42" ht="30">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -3967,7 +3962,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" ht="30">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -4053,7 +4048,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" ht="30">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -4139,7 +4134,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" ht="30" customHeight="1">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -4202,7 +4197,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="27" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" ht="30" customHeight="1">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -4265,7 +4260,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:42" ht="30" customHeight="1">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -4328,7 +4323,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:42">
       <c r="S29" s="2">
         <v>24</v>
       </c>
@@ -4373,7 +4368,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42">
       <c r="S30" s="2">
         <v>25</v>
       </c>
@@ -4417,7 +4412,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42">
       <c r="E31"/>
       <c r="S31" s="2">
         <v>26</v>
@@ -4463,7 +4458,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42">
       <c r="E32"/>
       <c r="S32" s="2">
         <v>27</v>
@@ -4509,7 +4504,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:42">
       <c r="E33"/>
       <c r="S33" s="2">
         <v>28</v>
@@ -4555,7 +4550,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:42">
       <c r="E34"/>
       <c r="S34" s="2">
         <v>29</v>
@@ -4601,7 +4596,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:42">
       <c r="E35"/>
       <c r="S35" s="2">
         <v>30</v>
@@ -4647,7 +4642,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="36" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:42">
       <c r="E36"/>
       <c r="S36" s="2">
         <v>31</v>
@@ -4693,7 +4688,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="37" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:42">
       <c r="S37" s="2">
         <v>32</v>
       </c>
@@ -4737,7 +4732,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="38" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:42">
       <c r="S38" s="2">
         <v>33</v>
       </c>
@@ -4781,7 +4776,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="39" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:42">
       <c r="S39" s="2">
         <v>34</v>
       </c>
@@ -4825,7 +4820,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:42">
       <c r="S40" s="2">
         <v>35</v>
       </c>
@@ -4869,7 +4864,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:42">
       <c r="S41" s="2">
         <v>36</v>
       </c>
@@ -4913,7 +4908,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:42">
       <c r="S42" s="2">
         <v>37</v>
       </c>
@@ -4957,7 +4952,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:42">
       <c r="S43" s="2">
         <v>38</v>
       </c>
@@ -5001,7 +4996,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:42">
       <c r="S44" s="2">
         <v>39</v>
       </c>
@@ -5045,7 +5040,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:42">
       <c r="S45" s="2">
         <v>40</v>
       </c>
@@ -5089,7 +5084,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="46" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:42">
       <c r="AA46" s="2">
         <v>41</v>
       </c>
@@ -5113,7 +5108,7 @@
       </c>
       <c r="AN46" s="32"/>
     </row>
-    <row r="47" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:42">
       <c r="AA47" s="2">
         <v>42</v>
       </c>
@@ -5136,7 +5131,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:42">
       <c r="AA48" s="2">
         <v>43</v>
       </c>
@@ -5159,7 +5154,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="27:33">
       <c r="AA49" s="2">
         <v>44</v>
       </c>
@@ -5182,7 +5177,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="50" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="27:33">
       <c r="AA50" s="2">
         <v>45</v>
       </c>
@@ -5205,7 +5200,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="27:33">
       <c r="AA51" s="2">
         <v>46</v>
       </c>
@@ -5228,7 +5223,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="52" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="27:33">
       <c r="AA52" s="2">
         <v>47</v>
       </c>
@@ -5251,7 +5246,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="53" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="27:33">
       <c r="AA53" s="2">
         <v>48</v>
       </c>
@@ -5274,7 +5269,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="27:33">
       <c r="AA54" s="2">
         <v>49</v>
       </c>
@@ -5297,7 +5292,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="55" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="27:33">
       <c r="AA55" s="2">
         <v>50</v>
       </c>
@@ -5320,7 +5315,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="56" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="27:33">
       <c r="AA56" s="2">
         <v>51</v>
       </c>
@@ -5343,7 +5338,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="27:33">
       <c r="AA57" s="2">
         <v>52</v>
       </c>
@@ -5366,7 +5361,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="27:33">
       <c r="AA58" s="2">
         <v>53</v>
       </c>
@@ -5389,7 +5384,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="59" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="27:33">
       <c r="AA59" s="2">
         <v>54</v>
       </c>
@@ -5412,7 +5407,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="27:33">
       <c r="AA60" s="2">
         <v>55</v>
       </c>
@@ -5435,7 +5430,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="61" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="27:33">
       <c r="AA61" s="2">
         <v>56</v>
       </c>
@@ -5458,7 +5453,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="62" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="27:33">
       <c r="AA62" s="2">
         <v>57</v>
       </c>
@@ -5481,7 +5476,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="27:33">
       <c r="AA63" s="2">
         <v>58</v>
       </c>
@@ -5504,7 +5499,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="64" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="27:33">
       <c r="AA64" s="2">
         <v>59</v>
       </c>
@@ -5527,7 +5522,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="65" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="27:33">
       <c r="AA65" s="2">
         <v>60</v>
       </c>
@@ -5550,7 +5545,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="27:33">
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
       <c r="AC66" s="22"/>
@@ -5558,7 +5553,7 @@
       <c r="AE66" s="24"/>
       <c r="AG66" s="13"/>
     </row>
-    <row r="67" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="27:33">
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
       <c r="AC67" s="22"/>
@@ -5566,7 +5561,7 @@
       <c r="AE67" s="24"/>
       <c r="AG67" s="13"/>
     </row>
-    <row r="68" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="27:33">
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
       <c r="AC68" s="22"/>
@@ -5574,7 +5569,7 @@
       <c r="AE68" s="24"/>
       <c r="AG68" s="13"/>
     </row>
-    <row r="69" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="27:33">
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
       <c r="AC69" s="22"/>
@@ -5582,7 +5577,7 @@
       <c r="AE69" s="24"/>
       <c r="AG69" s="13"/>
     </row>
-    <row r="70" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="27:33">
       <c r="AA70" s="13"/>
       <c r="AB70" s="13"/>
       <c r="AC70" s="22"/>
@@ -5590,7 +5585,7 @@
       <c r="AE70" s="24"/>
       <c r="AG70" s="13"/>
     </row>
-    <row r="71" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="27:33">
       <c r="AA71" s="13"/>
       <c r="AB71" s="13"/>
       <c r="AC71" s="22"/>
@@ -5598,7 +5593,7 @@
       <c r="AE71" s="24"/>
       <c r="AG71" s="13"/>
     </row>
-    <row r="72" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="27:33">
       <c r="AA72" s="13"/>
       <c r="AB72" s="13"/>
       <c r="AC72" s="22"/>
@@ -5606,7 +5601,7 @@
       <c r="AE72" s="24"/>
       <c r="AG72" s="13"/>
     </row>
-    <row r="73" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="27:33">
       <c r="AA73" s="13"/>
       <c r="AB73" s="13"/>
       <c r="AC73" s="22"/>
@@ -5614,7 +5609,7 @@
       <c r="AE73" s="24"/>
       <c r="AG73" s="13"/>
     </row>
-    <row r="74" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="27:33">
       <c r="AA74" s="13"/>
       <c r="AB74" s="13"/>
       <c r="AC74" s="22"/>
@@ -5622,7 +5617,7 @@
       <c r="AE74" s="24"/>
       <c r="AG74" s="13"/>
     </row>
-    <row r="75" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="27:33">
       <c r="AA75" s="13"/>
       <c r="AB75" s="13"/>
       <c r="AC75" s="22"/>
@@ -5630,7 +5625,7 @@
       <c r="AE75" s="24"/>
       <c r="AG75" s="13"/>
     </row>
-    <row r="76" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="27:33">
       <c r="AA76" s="13"/>
       <c r="AB76" s="13"/>
       <c r="AC76" s="22"/>
@@ -5638,7 +5633,7 @@
       <c r="AE76" s="24"/>
       <c r="AG76" s="13"/>
     </row>
-    <row r="77" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="27:33">
       <c r="AA77" s="13"/>
       <c r="AB77" s="13"/>
       <c r="AC77" s="22"/>
@@ -5646,7 +5641,7 @@
       <c r="AE77" s="24"/>
       <c r="AG77" s="13"/>
     </row>
-    <row r="78" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="27:33">
       <c r="AA78" s="13"/>
       <c r="AB78" s="13"/>
       <c r="AC78" s="22"/>
@@ -5654,7 +5649,7 @@
       <c r="AE78" s="24"/>
       <c r="AG78" s="13"/>
     </row>
-    <row r="79" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="27:33">
       <c r="AA79" s="13"/>
       <c r="AB79" s="13"/>
       <c r="AC79" s="22"/>
@@ -5662,7 +5657,7 @@
       <c r="AE79" s="24"/>
       <c r="AG79" s="13"/>
     </row>
-    <row r="80" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="27:33">
       <c r="AA80" s="13"/>
       <c r="AB80" s="13"/>
       <c r="AC80" s="22"/>
@@ -5670,7 +5665,7 @@
       <c r="AE80" s="24"/>
       <c r="AG80" s="13"/>
     </row>
-    <row r="81" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="27:33">
       <c r="AA81" s="13"/>
       <c r="AB81" s="13"/>
       <c r="AC81" s="22"/>
@@ -5678,7 +5673,7 @@
       <c r="AE81" s="24"/>
       <c r="AG81" s="13"/>
     </row>
-    <row r="82" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="27:33">
       <c r="AA82" s="13"/>
       <c r="AB82" s="26"/>
       <c r="AC82" s="22"/>
@@ -5686,7 +5681,7 @@
       <c r="AE82" s="24"/>
       <c r="AG82" s="13"/>
     </row>
-    <row r="83" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="27:33">
       <c r="AA83" s="13"/>
       <c r="AB83" s="26"/>
       <c r="AC83" s="22"/>
@@ -5694,7 +5689,7 @@
       <c r="AE83" s="24"/>
       <c r="AG83" s="13"/>
     </row>
-    <row r="84" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="27:33">
       <c r="AA84" s="13"/>
       <c r="AB84" s="26"/>
       <c r="AC84" s="22"/>
@@ -5702,7 +5697,7 @@
       <c r="AE84" s="24"/>
       <c r="AG84" s="13"/>
     </row>
-    <row r="85" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="27:33">
       <c r="AA85" s="13"/>
       <c r="AB85" s="26"/>
       <c r="AC85" s="22"/>
@@ -5710,7 +5705,7 @@
       <c r="AE85" s="24"/>
       <c r="AG85" s="13"/>
     </row>
-    <row r="86" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="27:33">
       <c r="AA86" s="13"/>
       <c r="AB86" s="26"/>
       <c r="AC86" s="22"/>
@@ -5718,7 +5713,7 @@
       <c r="AE86" s="24"/>
       <c r="AG86" s="13"/>
     </row>
-    <row r="87" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="27:33">
       <c r="AA87" s="13"/>
       <c r="AB87" s="13"/>
       <c r="AC87" s="22"/>
@@ -5726,7 +5721,7 @@
       <c r="AE87" s="24"/>
       <c r="AG87" s="13"/>
     </row>
-    <row r="88" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="27:33">
       <c r="AA88" s="26"/>
       <c r="AB88" s="26"/>
       <c r="AC88" s="27"/>
@@ -5734,7 +5729,7 @@
       <c r="AE88" s="29"/>
       <c r="AG88" s="13"/>
     </row>
-    <row r="89" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="27:33">
       <c r="AA89" s="26"/>
       <c r="AB89" s="26"/>
       <c r="AC89" s="27"/>
@@ -5742,7 +5737,7 @@
       <c r="AE89" s="29"/>
       <c r="AG89" s="13"/>
     </row>
-    <row r="90" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="27:33">
       <c r="AA90" s="26"/>
       <c r="AB90" s="26"/>
       <c r="AC90" s="27"/>
@@ -5750,7 +5745,7 @@
       <c r="AE90" s="29"/>
       <c r="AG90" s="13"/>
     </row>
-    <row r="91" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="27:33">
       <c r="AA91" s="26"/>
       <c r="AB91" s="13"/>
       <c r="AC91" s="22"/>
@@ -5758,7 +5753,7 @@
       <c r="AE91" s="24"/>
       <c r="AG91" s="13"/>
     </row>
-    <row r="92" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="27:33">
       <c r="AA92" s="26"/>
       <c r="AB92" s="13"/>
       <c r="AC92" s="22"/>
@@ -5766,7 +5761,7 @@
       <c r="AE92" s="24"/>
       <c r="AG92" s="13"/>
     </row>
-    <row r="93" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="27:33">
       <c r="AA93" s="26"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="22"/>
@@ -5774,7 +5769,7 @@
       <c r="AE93" s="24"/>
       <c r="AG93" s="13"/>
     </row>
-    <row r="94" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="27:33">
       <c r="AA94" s="26"/>
       <c r="AB94" s="13"/>
       <c r="AC94" s="22"/>
@@ -5782,7 +5777,7 @@
       <c r="AE94" s="24"/>
       <c r="AG94" s="13"/>
     </row>
-    <row r="95" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="27:33">
       <c r="AA95" s="26"/>
       <c r="AB95" s="26"/>
       <c r="AC95" s="22"/>
@@ -5790,7 +5785,7 @@
       <c r="AE95" s="24"/>
       <c r="AG95" s="13"/>
     </row>
-    <row r="96" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="27:33">
       <c r="AA96" s="26"/>
       <c r="AB96" s="26"/>
       <c r="AC96" s="22"/>
@@ -5798,7 +5793,7 @@
       <c r="AE96" s="24"/>
       <c r="AG96" s="13"/>
     </row>
-    <row r="97" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="27:33">
       <c r="AA97" s="26"/>
       <c r="AB97" s="26"/>
       <c r="AC97" s="22"/>
@@ -5806,7 +5801,7 @@
       <c r="AE97" s="24"/>
       <c r="AG97" s="13"/>
     </row>
-    <row r="98" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="27:33">
       <c r="AA98" s="26"/>
       <c r="AB98" s="26"/>
       <c r="AD98" s="23"/>

--- a/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
+++ b/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Databases\ERP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
@@ -11,8 +16,8 @@
     <sheet name="ERP with PK-FK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -688,13 +693,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,7 +965,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -995,7 +1000,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1172,21 +1177,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:S36"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1207,7 +1212,7 @@
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="21">
+    <row r="4" spans="2:19" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1237,7 @@
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="2:19">
+    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1279,7 +1284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="30">
+    <row r="6" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -1326,7 +1331,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="30">
+    <row r="7" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1373,7 +1378,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="30">
+    <row r="8" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1420,7 +1425,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="30">
+    <row r="9" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1467,7 +1472,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="30">
+    <row r="10" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1499,7 +1504,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="30">
+    <row r="11" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1531,7 +1536,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="30">
+    <row r="12" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1563,7 +1568,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="30">
+    <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1595,7 +1600,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="30">
+    <row r="14" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1627,7 +1632,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="30">
+    <row r="15" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1659,7 +1664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="30">
+    <row r="16" spans="2:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1691,7 +1696,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="30">
+    <row r="17" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -1723,7 +1728,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="30">
+    <row r="18" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -1755,7 +1760,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="30">
+    <row r="19" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -1787,7 +1792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="30">
+    <row r="20" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -1819,7 +1824,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="30">
+    <row r="21" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -1851,7 +1856,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="30">
+    <row r="22" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -1883,7 +1888,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="30">
+    <row r="23" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -1915,7 +1920,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="30">
+    <row r="24" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -1947,7 +1952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="30">
+    <row r="25" spans="2:16" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="30" customHeight="1">
+    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1997,7 +2002,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="30" customHeight="1">
+    <row r="27" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2015,7 +2020,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="30" customHeight="1">
+    <row r="28" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2033,7 +2038,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="2:16">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>125</v>
       </c>
@@ -2050,7 +2055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>130</v>
       </c>
@@ -2070,7 +2075,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:8">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>135</v>
       </c>
@@ -2090,7 +2095,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="3:8">
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>140</v>
       </c>
@@ -2110,7 +2115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:8">
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>143</v>
       </c>
@@ -2130,7 +2135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:8">
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E36"/>
       <c r="F36"/>
       <c r="H36">
@@ -2148,14 +2153,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:AS98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AL35" sqref="AL35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -2200,7 +2205,7 @@
     <col min="42" max="42" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:45" ht="21">
+    <row r="4" spans="2:45" ht="21" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2257,7 @@
       <c r="AN4" s="20"/>
       <c r="AO4" s="20"/>
     </row>
-    <row r="5" spans="2:45">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B5" s="7" t="s">
         <v>146</v>
       </c>
@@ -2353,7 +2358,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="30">
+    <row r="6" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="30">
+    <row r="7" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2555,7 +2560,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:45">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2656,7 +2661,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="30">
+    <row r="9" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="30">
+    <row r="10" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2843,7 +2848,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="30">
+    <row r="11" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -2929,7 +2934,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:45">
+    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -3015,7 +3020,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="30">
+    <row r="13" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -3102,7 +3107,7 @@
       </c>
       <c r="AS13" s="34"/>
     </row>
-    <row r="14" spans="2:45" ht="30">
+    <row r="14" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -3188,7 +3193,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="30">
+    <row r="15" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="30">
+    <row r="16" spans="2:45" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -3360,7 +3365,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:42" ht="30">
+    <row r="17" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -3446,7 +3451,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="30">
+    <row r="18" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -3532,7 +3537,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="2:42" ht="30">
+    <row r="19" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="2:42" ht="30">
+    <row r="20" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -3704,7 +3709,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="2:42" ht="30">
+    <row r="21" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -3790,7 +3795,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="2:42" ht="30">
+    <row r="22" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -3876,7 +3881,7 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="23" spans="2:42" ht="30">
+    <row r="23" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -3962,7 +3967,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:42" ht="30">
+    <row r="24" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:42" ht="30">
+    <row r="25" spans="2:42" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -4134,7 +4139,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="2:42" ht="30" customHeight="1">
+    <row r="26" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -4197,7 +4202,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="27" spans="2:42" ht="30" customHeight="1">
+    <row r="27" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -4260,7 +4265,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="30" customHeight="1">
+    <row r="28" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -4323,7 +4328,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="2:42">
+    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
       <c r="S29" s="2">
         <v>24</v>
       </c>
@@ -4368,7 +4373,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="2:42">
+    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
       <c r="S30" s="2">
         <v>25</v>
       </c>
@@ -4412,7 +4417,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="31" spans="2:42">
+    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
       <c r="E31"/>
       <c r="S31" s="2">
         <v>26</v>
@@ -4458,7 +4463,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="2:42">
+    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
       <c r="E32"/>
       <c r="S32" s="2">
         <v>27</v>
@@ -4504,7 +4509,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="5:42">
+    <row r="33" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E33"/>
       <c r="S33" s="2">
         <v>28</v>
@@ -4550,7 +4555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="5:42">
+    <row r="34" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E34"/>
       <c r="S34" s="2">
         <v>29</v>
@@ -4596,7 +4601,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="5:42">
+    <row r="35" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E35"/>
       <c r="S35" s="2">
         <v>30</v>
@@ -4642,7 +4647,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="36" spans="5:42">
+    <row r="36" spans="5:42" x14ac:dyDescent="0.25">
       <c r="E36"/>
       <c r="S36" s="2">
         <v>31</v>
@@ -4688,7 +4693,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="37" spans="5:42">
+    <row r="37" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S37" s="2">
         <v>32</v>
       </c>
@@ -4732,7 +4737,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="38" spans="5:42">
+    <row r="38" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S38" s="2">
         <v>33</v>
       </c>
@@ -4776,7 +4781,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="39" spans="5:42">
+    <row r="39" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S39" s="2">
         <v>34</v>
       </c>
@@ -4820,7 +4825,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="5:42">
+    <row r="40" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S40" s="2">
         <v>35</v>
       </c>
@@ -4864,7 +4869,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="5:42">
+    <row r="41" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S41" s="2">
         <v>36</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="5:42">
+    <row r="42" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S42" s="2">
         <v>37</v>
       </c>
@@ -4952,7 +4957,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="5:42">
+    <row r="43" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S43" s="2">
         <v>38</v>
       </c>
@@ -4996,7 +5001,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="5:42">
+    <row r="44" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S44" s="2">
         <v>39</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="5:42">
+    <row r="45" spans="5:42" x14ac:dyDescent="0.25">
       <c r="S45" s="2">
         <v>40</v>
       </c>
@@ -5084,7 +5089,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="46" spans="5:42">
+    <row r="46" spans="5:42" x14ac:dyDescent="0.25">
       <c r="AA46" s="2">
         <v>41</v>
       </c>
@@ -5108,7 +5113,7 @@
       </c>
       <c r="AN46" s="32"/>
     </row>
-    <row r="47" spans="5:42">
+    <row r="47" spans="5:42" x14ac:dyDescent="0.25">
       <c r="AA47" s="2">
         <v>42</v>
       </c>
@@ -5131,7 +5136,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="5:42">
+    <row r="48" spans="5:42" x14ac:dyDescent="0.25">
       <c r="AA48" s="2">
         <v>43</v>
       </c>
@@ -5154,7 +5159,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="27:33">
+    <row r="49" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA49" s="2">
         <v>44</v>
       </c>
@@ -5177,7 +5182,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="50" spans="27:33">
+    <row r="50" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA50" s="2">
         <v>45</v>
       </c>
@@ -5200,7 +5205,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="27:33">
+    <row r="51" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA51" s="2">
         <v>46</v>
       </c>
@@ -5223,7 +5228,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="52" spans="27:33">
+    <row r="52" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA52" s="2">
         <v>47</v>
       </c>
@@ -5246,7 +5251,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="53" spans="27:33">
+    <row r="53" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA53" s="2">
         <v>48</v>
       </c>
@@ -5269,7 +5274,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="27:33">
+    <row r="54" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA54" s="2">
         <v>49</v>
       </c>
@@ -5292,7 +5297,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="55" spans="27:33">
+    <row r="55" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA55" s="2">
         <v>50</v>
       </c>
@@ -5315,7 +5320,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="56" spans="27:33">
+    <row r="56" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA56" s="2">
         <v>51</v>
       </c>
@@ -5338,7 +5343,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="27:33">
+    <row r="57" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA57" s="2">
         <v>52</v>
       </c>
@@ -5361,7 +5366,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="27:33">
+    <row r="58" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA58" s="2">
         <v>53</v>
       </c>
@@ -5384,7 +5389,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="59" spans="27:33">
+    <row r="59" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA59" s="2">
         <v>54</v>
       </c>
@@ -5407,7 +5412,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="27:33">
+    <row r="60" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA60" s="2">
         <v>55</v>
       </c>
@@ -5430,7 +5435,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="61" spans="27:33">
+    <row r="61" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA61" s="2">
         <v>56</v>
       </c>
@@ -5453,7 +5458,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="62" spans="27:33">
+    <row r="62" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA62" s="2">
         <v>57</v>
       </c>
@@ -5476,7 +5481,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="27:33">
+    <row r="63" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA63" s="2">
         <v>58</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="64" spans="27:33">
+    <row r="64" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA64" s="2">
         <v>59</v>
       </c>
@@ -5522,7 +5527,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="65" spans="27:33">
+    <row r="65" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA65" s="2">
         <v>60</v>
       </c>
@@ -5545,7 +5550,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="27:33">
+    <row r="66" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
       <c r="AC66" s="22"/>
@@ -5553,7 +5558,7 @@
       <c r="AE66" s="24"/>
       <c r="AG66" s="13"/>
     </row>
-    <row r="67" spans="27:33">
+    <row r="67" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
       <c r="AC67" s="22"/>
@@ -5561,7 +5566,7 @@
       <c r="AE67" s="24"/>
       <c r="AG67" s="13"/>
     </row>
-    <row r="68" spans="27:33">
+    <row r="68" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
       <c r="AC68" s="22"/>
@@ -5569,7 +5574,7 @@
       <c r="AE68" s="24"/>
       <c r="AG68" s="13"/>
     </row>
-    <row r="69" spans="27:33">
+    <row r="69" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
       <c r="AC69" s="22"/>
@@ -5577,7 +5582,7 @@
       <c r="AE69" s="24"/>
       <c r="AG69" s="13"/>
     </row>
-    <row r="70" spans="27:33">
+    <row r="70" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA70" s="13"/>
       <c r="AB70" s="13"/>
       <c r="AC70" s="22"/>
@@ -5585,7 +5590,7 @@
       <c r="AE70" s="24"/>
       <c r="AG70" s="13"/>
     </row>
-    <row r="71" spans="27:33">
+    <row r="71" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA71" s="13"/>
       <c r="AB71" s="13"/>
       <c r="AC71" s="22"/>
@@ -5593,7 +5598,7 @@
       <c r="AE71" s="24"/>
       <c r="AG71" s="13"/>
     </row>
-    <row r="72" spans="27:33">
+    <row r="72" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA72" s="13"/>
       <c r="AB72" s="13"/>
       <c r="AC72" s="22"/>
@@ -5601,7 +5606,7 @@
       <c r="AE72" s="24"/>
       <c r="AG72" s="13"/>
     </row>
-    <row r="73" spans="27:33">
+    <row r="73" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA73" s="13"/>
       <c r="AB73" s="13"/>
       <c r="AC73" s="22"/>
@@ -5609,7 +5614,7 @@
       <c r="AE73" s="24"/>
       <c r="AG73" s="13"/>
     </row>
-    <row r="74" spans="27:33">
+    <row r="74" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA74" s="13"/>
       <c r="AB74" s="13"/>
       <c r="AC74" s="22"/>
@@ -5617,7 +5622,7 @@
       <c r="AE74" s="24"/>
       <c r="AG74" s="13"/>
     </row>
-    <row r="75" spans="27:33">
+    <row r="75" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA75" s="13"/>
       <c r="AB75" s="13"/>
       <c r="AC75" s="22"/>
@@ -5625,7 +5630,7 @@
       <c r="AE75" s="24"/>
       <c r="AG75" s="13"/>
     </row>
-    <row r="76" spans="27:33">
+    <row r="76" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA76" s="13"/>
       <c r="AB76" s="13"/>
       <c r="AC76" s="22"/>
@@ -5633,7 +5638,7 @@
       <c r="AE76" s="24"/>
       <c r="AG76" s="13"/>
     </row>
-    <row r="77" spans="27:33">
+    <row r="77" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA77" s="13"/>
       <c r="AB77" s="13"/>
       <c r="AC77" s="22"/>
@@ -5641,7 +5646,7 @@
       <c r="AE77" s="24"/>
       <c r="AG77" s="13"/>
     </row>
-    <row r="78" spans="27:33">
+    <row r="78" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA78" s="13"/>
       <c r="AB78" s="13"/>
       <c r="AC78" s="22"/>
@@ -5649,7 +5654,7 @@
       <c r="AE78" s="24"/>
       <c r="AG78" s="13"/>
     </row>
-    <row r="79" spans="27:33">
+    <row r="79" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA79" s="13"/>
       <c r="AB79" s="13"/>
       <c r="AC79" s="22"/>
@@ -5657,7 +5662,7 @@
       <c r="AE79" s="24"/>
       <c r="AG79" s="13"/>
     </row>
-    <row r="80" spans="27:33">
+    <row r="80" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA80" s="13"/>
       <c r="AB80" s="13"/>
       <c r="AC80" s="22"/>
@@ -5665,7 +5670,7 @@
       <c r="AE80" s="24"/>
       <c r="AG80" s="13"/>
     </row>
-    <row r="81" spans="27:33">
+    <row r="81" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA81" s="13"/>
       <c r="AB81" s="13"/>
       <c r="AC81" s="22"/>
@@ -5673,7 +5678,7 @@
       <c r="AE81" s="24"/>
       <c r="AG81" s="13"/>
     </row>
-    <row r="82" spans="27:33">
+    <row r="82" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA82" s="13"/>
       <c r="AB82" s="26"/>
       <c r="AC82" s="22"/>
@@ -5681,7 +5686,7 @@
       <c r="AE82" s="24"/>
       <c r="AG82" s="13"/>
     </row>
-    <row r="83" spans="27:33">
+    <row r="83" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA83" s="13"/>
       <c r="AB83" s="26"/>
       <c r="AC83" s="22"/>
@@ -5689,7 +5694,7 @@
       <c r="AE83" s="24"/>
       <c r="AG83" s="13"/>
     </row>
-    <row r="84" spans="27:33">
+    <row r="84" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA84" s="13"/>
       <c r="AB84" s="26"/>
       <c r="AC84" s="22"/>
@@ -5697,7 +5702,7 @@
       <c r="AE84" s="24"/>
       <c r="AG84" s="13"/>
     </row>
-    <row r="85" spans="27:33">
+    <row r="85" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA85" s="13"/>
       <c r="AB85" s="26"/>
       <c r="AC85" s="22"/>
@@ -5705,7 +5710,7 @@
       <c r="AE85" s="24"/>
       <c r="AG85" s="13"/>
     </row>
-    <row r="86" spans="27:33">
+    <row r="86" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA86" s="13"/>
       <c r="AB86" s="26"/>
       <c r="AC86" s="22"/>
@@ -5713,7 +5718,7 @@
       <c r="AE86" s="24"/>
       <c r="AG86" s="13"/>
     </row>
-    <row r="87" spans="27:33">
+    <row r="87" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA87" s="13"/>
       <c r="AB87" s="13"/>
       <c r="AC87" s="22"/>
@@ -5721,7 +5726,7 @@
       <c r="AE87" s="24"/>
       <c r="AG87" s="13"/>
     </row>
-    <row r="88" spans="27:33">
+    <row r="88" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA88" s="26"/>
       <c r="AB88" s="26"/>
       <c r="AC88" s="27"/>
@@ -5729,7 +5734,7 @@
       <c r="AE88" s="29"/>
       <c r="AG88" s="13"/>
     </row>
-    <row r="89" spans="27:33">
+    <row r="89" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA89" s="26"/>
       <c r="AB89" s="26"/>
       <c r="AC89" s="27"/>
@@ -5737,7 +5742,7 @@
       <c r="AE89" s="29"/>
       <c r="AG89" s="13"/>
     </row>
-    <row r="90" spans="27:33">
+    <row r="90" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA90" s="26"/>
       <c r="AB90" s="26"/>
       <c r="AC90" s="27"/>
@@ -5745,7 +5750,7 @@
       <c r="AE90" s="29"/>
       <c r="AG90" s="13"/>
     </row>
-    <row r="91" spans="27:33">
+    <row r="91" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA91" s="26"/>
       <c r="AB91" s="13"/>
       <c r="AC91" s="22"/>
@@ -5753,7 +5758,7 @@
       <c r="AE91" s="24"/>
       <c r="AG91" s="13"/>
     </row>
-    <row r="92" spans="27:33">
+    <row r="92" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA92" s="26"/>
       <c r="AB92" s="13"/>
       <c r="AC92" s="22"/>
@@ -5761,7 +5766,7 @@
       <c r="AE92" s="24"/>
       <c r="AG92" s="13"/>
     </row>
-    <row r="93" spans="27:33">
+    <row r="93" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA93" s="26"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="22"/>
@@ -5769,7 +5774,7 @@
       <c r="AE93" s="24"/>
       <c r="AG93" s="13"/>
     </row>
-    <row r="94" spans="27:33">
+    <row r="94" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA94" s="26"/>
       <c r="AB94" s="13"/>
       <c r="AC94" s="22"/>
@@ -5777,7 +5782,7 @@
       <c r="AE94" s="24"/>
       <c r="AG94" s="13"/>
     </row>
-    <row r="95" spans="27:33">
+    <row r="95" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA95" s="26"/>
       <c r="AB95" s="26"/>
       <c r="AC95" s="22"/>
@@ -5785,7 +5790,7 @@
       <c r="AE95" s="24"/>
       <c r="AG95" s="13"/>
     </row>
-    <row r="96" spans="27:33">
+    <row r="96" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA96" s="26"/>
       <c r="AB96" s="26"/>
       <c r="AC96" s="22"/>
@@ -5793,7 +5798,7 @@
       <c r="AE96" s="24"/>
       <c r="AG96" s="13"/>
     </row>
-    <row r="97" spans="27:33">
+    <row r="97" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA97" s="26"/>
       <c r="AB97" s="26"/>
       <c r="AC97" s="22"/>
@@ -5801,7 +5806,7 @@
       <c r="AE97" s="24"/>
       <c r="AG97" s="13"/>
     </row>
-    <row r="98" spans="27:33">
+    <row r="98" spans="27:33" x14ac:dyDescent="0.25">
       <c r="AA98" s="26"/>
       <c r="AB98" s="26"/>
       <c r="AD98" s="23"/>

--- a/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
+++ b/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New Databases\ERP\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1"/>
   </bookViews>
@@ -16,8 +11,8 @@
     <sheet name="ERP with PK-FK" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -693,13 +688,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-4009]General"/>
     <numFmt numFmtId="165" formatCode="[$-14009]yyyy/mm/dd;@"/>
     <numFmt numFmtId="166" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,7 +742,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -796,13 +791,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,6 +907,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -965,7 +972,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1000,7 +1007,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1177,21 +1184,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:S36"/>
   <sheetViews>
     <sheetView topLeftCell="I1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
@@ -1212,7 +1219,7 @@
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:19" ht="21">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +1244,7 @@
       </c>
       <c r="S4" s="8"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:19">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1284,7 +1291,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:19" ht="30">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -1331,7 +1338,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="30">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1378,7 +1385,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:19" ht="30">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -1425,7 +1432,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="30">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:19" ht="30">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1504,7 +1511,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:19" ht="30">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1536,7 +1543,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:19" ht="30">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1568,7 +1575,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="30">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1600,7 +1607,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:19" ht="30">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1632,7 +1639,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="30">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1664,7 +1671,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:19" ht="30">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1696,7 +1703,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="17" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="30">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -1728,7 +1735,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="30">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -1760,7 +1767,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" ht="30">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -1792,7 +1799,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" ht="30">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -1824,7 +1831,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" ht="30">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -1856,7 +1863,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" ht="30">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -1888,7 +1895,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" ht="30">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -1920,7 +1927,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" ht="30">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -1952,7 +1959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="2:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" ht="30">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" ht="30" customHeight="1">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -2002,7 +2009,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" ht="30" customHeight="1">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -2020,7 +2027,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" ht="30" customHeight="1">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -2038,7 +2045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16">
       <c r="C31" t="s">
         <v>125</v>
       </c>
@@ -2055,7 +2062,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16">
       <c r="C32" t="s">
         <v>130</v>
       </c>
@@ -2075,7 +2082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8">
       <c r="C33" t="s">
         <v>135</v>
       </c>
@@ -2095,7 +2102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:8">
       <c r="C34" t="s">
         <v>140</v>
       </c>
@@ -2115,7 +2122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:8">
       <c r="C35" t="s">
         <v>143</v>
       </c>
@@ -2135,7 +2142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:8">
       <c r="E36"/>
       <c r="F36"/>
       <c r="H36">
@@ -2153,14 +2160,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:AS98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AL35" sqref="AL35"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4:AK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.85546875" customWidth="1"/>
     <col min="2" max="2" width="6.85546875" customWidth="1"/>
@@ -2205,7 +2212,7 @@
     <col min="42" max="42" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:45" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:45" ht="21">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2246,18 +2253,19 @@
       <c r="AE4" s="20"/>
       <c r="AF4" s="20"/>
       <c r="AG4" s="20"/>
-      <c r="AI4" s="20" t="s">
+      <c r="AI4" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="AJ4" s="20"/>
-      <c r="AK4" s="20"/>
-      <c r="AM4" s="20" t="s">
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AM4" s="36" t="s">
         <v>218</v>
       </c>
-      <c r="AN4" s="20"/>
-      <c r="AO4" s="20"/>
-    </row>
-    <row r="5" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+    </row>
+    <row r="5" spans="2:45">
       <c r="B5" s="7" t="s">
         <v>146</v>
       </c>
@@ -2358,7 +2366,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:45" ht="30">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -2459,7 +2467,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:45" ht="30">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2560,7 +2568,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:45">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:45" ht="30">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -2762,7 +2770,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:45" ht="30">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2848,7 +2856,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:45" ht="30">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -2934,7 +2942,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:45">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -3020,7 +3028,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:45" ht="30">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -3107,7 +3115,7 @@
       </c>
       <c r="AS13" s="34"/>
     </row>
-    <row r="14" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:45" ht="30">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -3193,7 +3201,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:45" ht="30">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:45" ht="30">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -3365,7 +3373,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:42" ht="30">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -3451,7 +3459,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:42" ht="30">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -3537,7 +3545,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:42" ht="30">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:42" ht="30">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -3709,7 +3717,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:42" ht="30">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -3795,7 +3803,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:42" ht="30">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -3881,7 +3889,7 @@
         <v>4588</v>
       </c>
     </row>
-    <row r="23" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:42" ht="30">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -3967,7 +3975,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:42" ht="30">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -4053,7 +4061,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:42" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:42" ht="30">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -4139,7 +4147,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:42" ht="30" customHeight="1">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -4202,7 +4210,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="27" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:42" ht="30" customHeight="1">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -4265,7 +4273,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:42" ht="30" customHeight="1">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -4328,7 +4336,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="29" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:42">
       <c r="S29" s="2">
         <v>24</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="30" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:42">
       <c r="S30" s="2">
         <v>25</v>
       </c>
@@ -4417,7 +4425,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="31" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:42">
       <c r="E31"/>
       <c r="S31" s="2">
         <v>26</v>
@@ -4463,7 +4471,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="32" spans="2:42" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:42">
       <c r="E32"/>
       <c r="S32" s="2">
         <v>27</v>
@@ -4509,7 +4517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:42">
       <c r="E33"/>
       <c r="S33" s="2">
         <v>28</v>
@@ -4555,7 +4563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:42">
       <c r="E34"/>
       <c r="S34" s="2">
         <v>29</v>
@@ -4601,7 +4609,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="35" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:42">
       <c r="E35"/>
       <c r="S35" s="2">
         <v>30</v>
@@ -4647,7 +4655,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="36" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:42">
       <c r="E36"/>
       <c r="S36" s="2">
         <v>31</v>
@@ -4693,7 +4701,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="37" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:42">
       <c r="S37" s="2">
         <v>32</v>
       </c>
@@ -4737,7 +4745,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="38" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:42">
       <c r="S38" s="2">
         <v>33</v>
       </c>
@@ -4781,7 +4789,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="39" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:42">
       <c r="S39" s="2">
         <v>34</v>
       </c>
@@ -4825,7 +4833,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="40" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:42">
       <c r="S40" s="2">
         <v>35</v>
       </c>
@@ -4869,7 +4877,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="41" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:42">
       <c r="S41" s="2">
         <v>36</v>
       </c>
@@ -4913,7 +4921,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="42" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:42">
       <c r="S42" s="2">
         <v>37</v>
       </c>
@@ -4957,7 +4965,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:42">
       <c r="S43" s="2">
         <v>38</v>
       </c>
@@ -5001,7 +5009,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="44" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:42">
       <c r="S44" s="2">
         <v>39</v>
       </c>
@@ -5045,7 +5053,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="45" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:42">
       <c r="S45" s="2">
         <v>40</v>
       </c>
@@ -5089,7 +5097,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="46" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:42">
       <c r="AA46" s="2">
         <v>41</v>
       </c>
@@ -5113,7 +5121,7 @@
       </c>
       <c r="AN46" s="32"/>
     </row>
-    <row r="47" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:42">
       <c r="AA47" s="2">
         <v>42</v>
       </c>
@@ -5136,7 +5144,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="5:42" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:42">
       <c r="AA48" s="2">
         <v>43</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="49" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="27:33">
       <c r="AA49" s="2">
         <v>44</v>
       </c>
@@ -5182,7 +5190,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="50" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="27:33">
       <c r="AA50" s="2">
         <v>45</v>
       </c>
@@ -5205,7 +5213,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="27:33">
       <c r="AA51" s="2">
         <v>46</v>
       </c>
@@ -5228,7 +5236,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="52" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="27:33">
       <c r="AA52" s="2">
         <v>47</v>
       </c>
@@ -5251,7 +5259,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="53" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="27:33">
       <c r="AA53" s="2">
         <v>48</v>
       </c>
@@ -5274,7 +5282,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="27:33">
       <c r="AA54" s="2">
         <v>49</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="55" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="27:33">
       <c r="AA55" s="2">
         <v>50</v>
       </c>
@@ -5320,7 +5328,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="56" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="27:33">
       <c r="AA56" s="2">
         <v>51</v>
       </c>
@@ -5343,7 +5351,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="27:33">
       <c r="AA57" s="2">
         <v>52</v>
       </c>
@@ -5366,7 +5374,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="58" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="27:33">
       <c r="AA58" s="2">
         <v>53</v>
       </c>
@@ -5389,7 +5397,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="59" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="27:33">
       <c r="AA59" s="2">
         <v>54</v>
       </c>
@@ -5412,7 +5420,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="60" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="27:33">
       <c r="AA60" s="2">
         <v>55</v>
       </c>
@@ -5435,7 +5443,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="61" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="27:33">
       <c r="AA61" s="2">
         <v>56</v>
       </c>
@@ -5458,7 +5466,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="62" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="27:33">
       <c r="AA62" s="2">
         <v>57</v>
       </c>
@@ -5481,7 +5489,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="27:33">
       <c r="AA63" s="2">
         <v>58</v>
       </c>
@@ -5504,7 +5512,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="64" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="27:33">
       <c r="AA64" s="2">
         <v>59</v>
       </c>
@@ -5527,7 +5535,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="65" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="27:33">
       <c r="AA65" s="2">
         <v>60</v>
       </c>
@@ -5550,7 +5558,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="27:33">
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
       <c r="AC66" s="22"/>
@@ -5558,7 +5566,7 @@
       <c r="AE66" s="24"/>
       <c r="AG66" s="13"/>
     </row>
-    <row r="67" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="27:33">
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
       <c r="AC67" s="22"/>
@@ -5566,7 +5574,7 @@
       <c r="AE67" s="24"/>
       <c r="AG67" s="13"/>
     </row>
-    <row r="68" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="27:33">
       <c r="AA68" s="13"/>
       <c r="AB68" s="13"/>
       <c r="AC68" s="22"/>
@@ -5574,7 +5582,7 @@
       <c r="AE68" s="24"/>
       <c r="AG68" s="13"/>
     </row>
-    <row r="69" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="27:33">
       <c r="AA69" s="13"/>
       <c r="AB69" s="13"/>
       <c r="AC69" s="22"/>
@@ -5582,7 +5590,7 @@
       <c r="AE69" s="24"/>
       <c r="AG69" s="13"/>
     </row>
-    <row r="70" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="27:33">
       <c r="AA70" s="13"/>
       <c r="AB70" s="13"/>
       <c r="AC70" s="22"/>
@@ -5590,7 +5598,7 @@
       <c r="AE70" s="24"/>
       <c r="AG70" s="13"/>
     </row>
-    <row r="71" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="27:33">
       <c r="AA71" s="13"/>
       <c r="AB71" s="13"/>
       <c r="AC71" s="22"/>
@@ -5598,7 +5606,7 @@
       <c r="AE71" s="24"/>
       <c r="AG71" s="13"/>
     </row>
-    <row r="72" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="27:33">
       <c r="AA72" s="13"/>
       <c r="AB72" s="13"/>
       <c r="AC72" s="22"/>
@@ -5606,7 +5614,7 @@
       <c r="AE72" s="24"/>
       <c r="AG72" s="13"/>
     </row>
-    <row r="73" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="27:33">
       <c r="AA73" s="13"/>
       <c r="AB73" s="13"/>
       <c r="AC73" s="22"/>
@@ -5614,7 +5622,7 @@
       <c r="AE73" s="24"/>
       <c r="AG73" s="13"/>
     </row>
-    <row r="74" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="27:33">
       <c r="AA74" s="13"/>
       <c r="AB74" s="13"/>
       <c r="AC74" s="22"/>
@@ -5622,7 +5630,7 @@
       <c r="AE74" s="24"/>
       <c r="AG74" s="13"/>
     </row>
-    <row r="75" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="27:33">
       <c r="AA75" s="13"/>
       <c r="AB75" s="13"/>
       <c r="AC75" s="22"/>
@@ -5630,7 +5638,7 @@
       <c r="AE75" s="24"/>
       <c r="AG75" s="13"/>
     </row>
-    <row r="76" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="27:33">
       <c r="AA76" s="13"/>
       <c r="AB76" s="13"/>
       <c r="AC76" s="22"/>
@@ -5638,7 +5646,7 @@
       <c r="AE76" s="24"/>
       <c r="AG76" s="13"/>
     </row>
-    <row r="77" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="27:33">
       <c r="AA77" s="13"/>
       <c r="AB77" s="13"/>
       <c r="AC77" s="22"/>
@@ -5646,7 +5654,7 @@
       <c r="AE77" s="24"/>
       <c r="AG77" s="13"/>
     </row>
-    <row r="78" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="27:33">
       <c r="AA78" s="13"/>
       <c r="AB78" s="13"/>
       <c r="AC78" s="22"/>
@@ -5654,7 +5662,7 @@
       <c r="AE78" s="24"/>
       <c r="AG78" s="13"/>
     </row>
-    <row r="79" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="27:33">
       <c r="AA79" s="13"/>
       <c r="AB79" s="13"/>
       <c r="AC79" s="22"/>
@@ -5662,7 +5670,7 @@
       <c r="AE79" s="24"/>
       <c r="AG79" s="13"/>
     </row>
-    <row r="80" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="27:33">
       <c r="AA80" s="13"/>
       <c r="AB80" s="13"/>
       <c r="AC80" s="22"/>
@@ -5670,7 +5678,7 @@
       <c r="AE80" s="24"/>
       <c r="AG80" s="13"/>
     </row>
-    <row r="81" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="27:33">
       <c r="AA81" s="13"/>
       <c r="AB81" s="13"/>
       <c r="AC81" s="22"/>
@@ -5678,7 +5686,7 @@
       <c r="AE81" s="24"/>
       <c r="AG81" s="13"/>
     </row>
-    <row r="82" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="27:33">
       <c r="AA82" s="13"/>
       <c r="AB82" s="26"/>
       <c r="AC82" s="22"/>
@@ -5686,7 +5694,7 @@
       <c r="AE82" s="24"/>
       <c r="AG82" s="13"/>
     </row>
-    <row r="83" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="27:33">
       <c r="AA83" s="13"/>
       <c r="AB83" s="26"/>
       <c r="AC83" s="22"/>
@@ -5694,7 +5702,7 @@
       <c r="AE83" s="24"/>
       <c r="AG83" s="13"/>
     </row>
-    <row r="84" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="27:33">
       <c r="AA84" s="13"/>
       <c r="AB84" s="26"/>
       <c r="AC84" s="22"/>
@@ -5702,7 +5710,7 @@
       <c r="AE84" s="24"/>
       <c r="AG84" s="13"/>
     </row>
-    <row r="85" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="27:33">
       <c r="AA85" s="13"/>
       <c r="AB85" s="26"/>
       <c r="AC85" s="22"/>
@@ -5710,7 +5718,7 @@
       <c r="AE85" s="24"/>
       <c r="AG85" s="13"/>
     </row>
-    <row r="86" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="27:33">
       <c r="AA86" s="13"/>
       <c r="AB86" s="26"/>
       <c r="AC86" s="22"/>
@@ -5718,7 +5726,7 @@
       <c r="AE86" s="24"/>
       <c r="AG86" s="13"/>
     </row>
-    <row r="87" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="27:33">
       <c r="AA87" s="13"/>
       <c r="AB87" s="13"/>
       <c r="AC87" s="22"/>
@@ -5726,7 +5734,7 @@
       <c r="AE87" s="24"/>
       <c r="AG87" s="13"/>
     </row>
-    <row r="88" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="27:33">
       <c r="AA88" s="26"/>
       <c r="AB88" s="26"/>
       <c r="AC88" s="27"/>
@@ -5734,7 +5742,7 @@
       <c r="AE88" s="29"/>
       <c r="AG88" s="13"/>
     </row>
-    <row r="89" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="27:33">
       <c r="AA89" s="26"/>
       <c r="AB89" s="26"/>
       <c r="AC89" s="27"/>
@@ -5742,7 +5750,7 @@
       <c r="AE89" s="29"/>
       <c r="AG89" s="13"/>
     </row>
-    <row r="90" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="27:33">
       <c r="AA90" s="26"/>
       <c r="AB90" s="26"/>
       <c r="AC90" s="27"/>
@@ -5750,7 +5758,7 @@
       <c r="AE90" s="29"/>
       <c r="AG90" s="13"/>
     </row>
-    <row r="91" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="27:33">
       <c r="AA91" s="26"/>
       <c r="AB91" s="13"/>
       <c r="AC91" s="22"/>
@@ -5758,7 +5766,7 @@
       <c r="AE91" s="24"/>
       <c r="AG91" s="13"/>
     </row>
-    <row r="92" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="27:33">
       <c r="AA92" s="26"/>
       <c r="AB92" s="13"/>
       <c r="AC92" s="22"/>
@@ -5766,7 +5774,7 @@
       <c r="AE92" s="24"/>
       <c r="AG92" s="13"/>
     </row>
-    <row r="93" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="27:33">
       <c r="AA93" s="26"/>
       <c r="AB93" s="13"/>
       <c r="AC93" s="22"/>
@@ -5774,7 +5782,7 @@
       <c r="AE93" s="24"/>
       <c r="AG93" s="13"/>
     </row>
-    <row r="94" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="27:33">
       <c r="AA94" s="26"/>
       <c r="AB94" s="13"/>
       <c r="AC94" s="22"/>
@@ -5782,7 +5790,7 @@
       <c r="AE94" s="24"/>
       <c r="AG94" s="13"/>
     </row>
-    <row r="95" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="27:33">
       <c r="AA95" s="26"/>
       <c r="AB95" s="26"/>
       <c r="AC95" s="22"/>
@@ -5790,7 +5798,7 @@
       <c r="AE95" s="24"/>
       <c r="AG95" s="13"/>
     </row>
-    <row r="96" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="27:33">
       <c r="AA96" s="26"/>
       <c r="AB96" s="26"/>
       <c r="AC96" s="22"/>
@@ -5798,7 +5806,7 @@
       <c r="AE96" s="24"/>
       <c r="AG96" s="13"/>
     </row>
-    <row r="97" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="27:33">
       <c r="AA97" s="26"/>
       <c r="AB97" s="26"/>
       <c r="AC97" s="22"/>
@@ -5806,7 +5814,7 @@
       <c r="AE97" s="24"/>
       <c r="AG97" s="13"/>
     </row>
-    <row r="98" spans="27:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="27:33">
       <c r="AA98" s="26"/>
       <c r="AB98" s="26"/>
       <c r="AD98" s="23"/>
@@ -5814,6 +5822,10 @@
       <c r="AG98" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="AM4:AP4"/>
+    <mergeCell ref="AI4:AK4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
+++ b/ERP, STUDENT, and CAB Databases/ERP/infoway_ERP.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="ERP with PK-FK" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -806,7 +806,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -903,6 +903,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1184,7 +1187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1225,9 +1228,9 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="8"/>
       <c r="J4" s="9" t="s">
         <v>97</v>
@@ -2161,10 +2164,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:AS98"/>
+  <dimension ref="B4:CA98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4:AK4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2176,43 +2179,44 @@
     <col min="5" max="5" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
     <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="36.5703125" style="5" customWidth="1"/>
     <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" customWidth="1"/>
-    <col min="17" max="17" width="13.140625" customWidth="1"/>
-    <col min="18" max="18" width="3.85546875" customWidth="1"/>
-    <col min="19" max="19" width="7.42578125" customWidth="1"/>
-    <col min="20" max="20" width="13.85546875" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="22" max="22" width="3.85546875" customWidth="1"/>
-    <col min="23" max="23" width="6.85546875" customWidth="1"/>
-    <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="25" max="25" width="36.5703125" style="5" customWidth="1"/>
-    <col min="26" max="26" width="3.85546875" customWidth="1"/>
-    <col min="27" max="27" width="6.7109375" style="25" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="25" customWidth="1"/>
-    <col min="29" max="29" width="7.85546875" style="25" customWidth="1"/>
-    <col min="30" max="30" width="13.140625" style="25" customWidth="1"/>
-    <col min="31" max="31" width="22.5703125" style="25" customWidth="1"/>
-    <col min="32" max="33" width="13.140625" style="25" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" style="25" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="25" customWidth="1"/>
+    <col min="18" max="18" width="7.85546875" style="25" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="25" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" style="25" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" style="25" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="28" max="28" width="6.140625" customWidth="1"/>
+    <col min="29" max="29" width="13.140625" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" customWidth="1"/>
+    <col min="31" max="31" width="3.85546875" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" customWidth="1"/>
+    <col min="33" max="33" width="13.140625" customWidth="1"/>
     <col min="34" max="34" width="3.85546875" customWidth="1"/>
-    <col min="35" max="35" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.28515625" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" customWidth="1"/>
+    <col min="36" max="36" width="11" customWidth="1"/>
+    <col min="37" max="37" width="18.42578125" style="12" customWidth="1"/>
     <col min="38" max="38" width="3.85546875" customWidth="1"/>
-    <col min="39" max="39" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.28515625" customWidth="1"/>
-    <col min="42" max="42" width="16.85546875" customWidth="1"/>
+    <col min="41" max="72" width="3.85546875" customWidth="1"/>
+    <col min="73" max="73" width="6.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="15.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="13.28515625" customWidth="1"/>
+    <col min="76" max="76" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:45" ht="21">
+    <row r="4" spans="2:79" ht="21">
       <c r="B4" s="18" t="s">
         <v>0</v>
       </c>
@@ -2221,51 +2225,51 @@
       <c r="E4" s="19"/>
       <c r="F4" s="17"/>
       <c r="H4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="17"/>
+      <c r="L4" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="P4" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="X4" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37"/>
+      <c r="AB4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="L4" s="9" t="s">
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="35"/>
+      <c r="AF4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG4" s="35"/>
+      <c r="AI4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="P4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="S4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="T4" s="9"/>
-      <c r="U4" s="17"/>
-      <c r="W4" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="19"/>
-      <c r="AA4" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AI4" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AM4" s="36" t="s">
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="BU4" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-    </row>
-    <row r="5" spans="2:45">
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37"/>
+      <c r="BX4" s="37"/>
+    </row>
+    <row r="5" spans="2:79">
       <c r="B5" s="7" t="s">
         <v>146</v>
       </c>
@@ -2285,88 +2289,88 @@
         <v>146</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>146</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>84</v>
+        <v>150</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>146</v>
       </c>
       <c r="Q5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC5" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="AD5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF5" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AD5" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AE5" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="AG5" s="7" t="s">
-        <v>155</v>
+        <v>84</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>146</v>
       </c>
       <c r="AJ5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BU5" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="BV5" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="AK5" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AM5" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="AO5" s="7" t="s">
+      <c r="BW5" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="AP5" s="7" t="s">
+      <c r="BX5" s="7" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="6" spans="2:45" ht="30">
+    <row r="6" spans="2:79" ht="30">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -2383,91 +2387,91 @@
         <v>65</v>
       </c>
       <c r="H6" s="2">
-        <v>10</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" s="3">
-        <v>9850884556</v>
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2">
+        <v>7032300034</v>
       </c>
       <c r="L6" s="2">
         <v>1</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>102</v>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="P6" s="2">
         <v>1</v>
       </c>
-      <c r="Q6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="S6" s="2">
+      <c r="Q6" s="2">
         <v>1</v>
       </c>
-      <c r="T6" s="2">
-        <v>1</v>
+      <c r="R6" s="3">
+        <v>10</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T6" s="21" t="s">
+        <v>157</v>
       </c>
       <c r="U6" s="2">
-        <v>7032300034</v>
-      </c>
-      <c r="W6" s="2">
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="V6" s="2">
+        <v>2012</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
       </c>
-      <c r="Y6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA6" s="2">
+      <c r="Y6" s="2">
         <v>1</v>
       </c>
+      <c r="Z6" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="AB6" s="2">
+        <v>10</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>9850884556</v>
+      </c>
+      <c r="AF6" s="2">
         <v>1</v>
       </c>
-      <c r="AC6" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE6" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>67</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>2012</v>
+      <c r="AG6" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="AI6" s="2">
         <v>1</v>
       </c>
-      <c r="AJ6" s="2">
+      <c r="AJ6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU6" s="2">
         <v>1</v>
       </c>
-      <c r="AK6" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AN6" s="2">
+      <c r="BV6" s="2">
         <v>4</v>
       </c>
-      <c r="AO6" s="34">
+      <c r="BW6" s="34">
         <v>43477</v>
       </c>
-      <c r="AP6" s="2">
+      <c r="BX6" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="2:45" ht="30">
+    <row r="7" spans="2:79" ht="30">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -2484,91 +2488,91 @@
         <v>66</v>
       </c>
       <c r="H7" s="2">
-        <v>20</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="3">
-        <v>7070675410</v>
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>7032300039</v>
       </c>
       <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>103</v>
+      <c r="M7" s="2">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="P7" s="2">
         <v>2</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="S7" s="2">
-        <v>2</v>
-      </c>
-      <c r="T7" s="2">
-        <v>2</v>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
+        <v>12</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="U7" s="2">
-        <v>7032300039</v>
-      </c>
-      <c r="W7" s="2">
-        <v>2</v>
+        <v>74</v>
+      </c>
+      <c r="V7" s="2">
+        <v>2014</v>
       </c>
       <c r="X7" s="2">
         <v>2</v>
       </c>
-      <c r="Y7" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA7" s="2">
+      <c r="Y7" s="2">
         <v>2</v>
       </c>
+      <c r="Z7" s="3" t="s">
+        <v>203</v>
+      </c>
       <c r="AB7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE7" s="21" t="s">
-        <v>159</v>
+        <v>20</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>7070675410</v>
       </c>
       <c r="AF7" s="2">
-        <v>74</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>2014</v>
+        <v>2</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="AI7" s="2">
         <v>2</v>
       </c>
-      <c r="AJ7" s="2">
+      <c r="AJ7" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU7" s="2">
         <v>2</v>
       </c>
-      <c r="AK7" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>2</v>
-      </c>
-      <c r="AN7" s="2">
+      <c r="BV7" s="2">
         <v>1</v>
       </c>
-      <c r="AO7" s="34">
+      <c r="BW7" s="34">
         <v>43477</v>
       </c>
-      <c r="AP7" s="2">
+      <c r="BX7" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="8" spans="2:45">
+    <row r="8" spans="2:79">
       <c r="B8" s="2">
         <v>3</v>
       </c>
@@ -2585,91 +2589,91 @@
         <v>67</v>
       </c>
       <c r="H8" s="2">
-        <v>30</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="3">
-        <v>9790771220</v>
+        <v>3</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7032300050</v>
       </c>
       <c r="L8" s="2">
         <v>3</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>106</v>
+      <c r="M8" s="2">
+        <v>3</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="P8" s="2">
         <v>3</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="S8" s="2">
-        <v>3</v>
-      </c>
-      <c r="T8" s="2">
-        <v>3</v>
+      <c r="Q8" s="2">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="U8" s="2">
-        <v>7032300050</v>
-      </c>
-      <c r="W8" s="2">
-        <v>3</v>
+        <v>68</v>
+      </c>
+      <c r="V8" s="2">
+        <v>2018</v>
       </c>
       <c r="X8" s="2">
         <v>3</v>
       </c>
-      <c r="Y8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="2">
+      <c r="Y8" s="2">
         <v>3</v>
       </c>
+      <c r="Z8" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="AB8" s="2">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE8" s="21" t="s">
-        <v>159</v>
+        <v>86</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>9790771220</v>
       </c>
       <c r="AF8" s="2">
-        <v>68</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>2018</v>
+        <v>3</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="AI8" s="2">
         <v>3</v>
       </c>
-      <c r="AJ8" s="2">
+      <c r="AJ8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU8" s="2">
         <v>3</v>
       </c>
-      <c r="AK8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>3</v>
-      </c>
-      <c r="AN8" s="2">
+      <c r="BV8" s="2">
         <v>6</v>
       </c>
-      <c r="AO8" s="34">
+      <c r="BW8" s="34">
         <v>43694</v>
       </c>
-      <c r="AP8" s="2">
+      <c r="BX8" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="2:45" ht="30">
+    <row r="9" spans="2:79" ht="30">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -2686,91 +2690,91 @@
         <v>68</v>
       </c>
       <c r="H9" s="2">
-        <v>40</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="J9" s="3">
-        <v>8080118552</v>
+        <v>4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>4</v>
+      </c>
+      <c r="J9" s="2">
+        <v>7032300027</v>
       </c>
       <c r="L9" s="2">
         <v>4</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>98</v>
+      <c r="M9" s="2">
+        <v>4</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="P9" s="2">
         <v>4</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="S9" s="2">
-        <v>4</v>
-      </c>
-      <c r="T9" s="2">
-        <v>4</v>
+      <c r="Q9" s="2">
+        <v>2</v>
+      </c>
+      <c r="R9" s="3">
+        <v>10</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="T9" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="U9" s="2">
-        <v>7032300027</v>
-      </c>
-      <c r="W9" s="2">
-        <v>4</v>
+        <v>68</v>
+      </c>
+      <c r="V9" s="2">
+        <v>2013</v>
       </c>
       <c r="X9" s="2">
         <v>4</v>
       </c>
-      <c r="Y9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA9" s="2">
+      <c r="Y9" s="2">
         <v>4</v>
       </c>
+      <c r="Z9" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="AB9" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="AE9" s="21" t="s">
-        <v>162</v>
+        <v>40</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>8080118552</v>
       </c>
       <c r="AF9" s="2">
-        <v>68</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>2013</v>
+        <v>4</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="AI9" s="2">
         <v>4</v>
       </c>
-      <c r="AJ9" s="2">
+      <c r="AJ9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU9" s="2">
         <v>4</v>
       </c>
-      <c r="AK9" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AN9" s="2">
+      <c r="BV9" s="2">
         <v>2</v>
       </c>
-      <c r="AO9" s="34">
+      <c r="BW9" s="34">
         <v>43587</v>
       </c>
-      <c r="AP9" s="2">
+      <c r="BX9" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="2:45" ht="30">
+    <row r="10" spans="2:79" ht="30">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -2786,77 +2790,77 @@
       <c r="F10" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="H10" s="2">
+        <v>5</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>7032300001</v>
+      </c>
       <c r="L10" s="2">
         <v>5</v>
       </c>
-      <c r="M10" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10" s="2">
+      <c r="M10" s="2">
         <v>5</v>
       </c>
-      <c r="T10" s="2">
+      <c r="N10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P10" s="2">
         <v>5</v>
       </c>
+      <c r="Q10" s="2">
+        <v>2</v>
+      </c>
+      <c r="R10" s="3">
+        <v>12</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T10" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="U10" s="2">
-        <v>7032300001</v>
-      </c>
-      <c r="W10" s="2">
-        <v>5</v>
+        <v>56</v>
+      </c>
+      <c r="V10" s="2">
+        <v>2015</v>
       </c>
       <c r="X10" s="2">
         <v>5</v>
       </c>
-      <c r="Y10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="2">
+      <c r="Y10" s="2">
         <v>5</v>
       </c>
-      <c r="AB10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AE10" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>2015</v>
+      <c r="Z10" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="AI10" s="2">
         <v>5</v>
       </c>
-      <c r="AJ10" s="2">
+      <c r="AJ10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK10" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU10" s="2">
         <v>5</v>
       </c>
-      <c r="AK10" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>5</v>
-      </c>
-      <c r="AN10" s="2">
+      <c r="BV10" s="2">
         <v>12</v>
       </c>
-      <c r="AO10" s="34">
+      <c r="BW10" s="34">
         <v>43588</v>
       </c>
-      <c r="AP10" s="2">
+      <c r="BX10" s="2">
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="2:45" ht="30">
+    <row r="11" spans="2:79" ht="30">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -2872,77 +2876,77 @@
       <c r="F11" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="H11" s="2">
+        <v>6</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="2">
+        <v>7032300079</v>
+      </c>
       <c r="L11" s="2">
         <v>6</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S11" s="2">
+      <c r="M11" s="2">
         <v>6</v>
       </c>
-      <c r="T11" s="2">
+      <c r="N11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="P11" s="2">
         <v>6</v>
       </c>
+      <c r="Q11" s="2">
+        <v>2</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T11" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="U11" s="2">
-        <v>7032300079</v>
-      </c>
-      <c r="W11" s="2">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="V11" s="2">
+        <v>2019</v>
       </c>
       <c r="X11" s="2">
         <v>6</v>
       </c>
-      <c r="Y11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA11" s="2">
+      <c r="Y11" s="2">
         <v>6</v>
       </c>
-      <c r="AB11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE11" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>64</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>2019</v>
+      <c r="Z11" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="AI11" s="2">
         <v>6</v>
       </c>
-      <c r="AJ11" s="2">
+      <c r="AJ11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU11" s="2">
         <v>6</v>
       </c>
-      <c r="AK11" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>6</v>
-      </c>
-      <c r="AN11" s="2">
+      <c r="BV11" s="2">
         <v>12</v>
       </c>
-      <c r="AO11" s="34">
+      <c r="BW11" s="34">
         <v>43589</v>
       </c>
-      <c r="AP11" s="2">
+      <c r="BX11" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="2:45">
+    <row r="12" spans="2:79">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -2958,77 +2962,77 @@
       <c r="F12" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="H12" s="2">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>7032300081</v>
+      </c>
       <c r="L12" s="2">
         <v>7</v>
       </c>
-      <c r="M12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S12" s="2">
+      <c r="M12" s="2">
         <v>7</v>
       </c>
-      <c r="T12" s="2">
+      <c r="N12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="P12" s="2">
         <v>7</v>
       </c>
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>10</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="T12" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="U12" s="2">
-        <v>7032300081</v>
-      </c>
-      <c r="W12" s="2">
-        <v>7</v>
+        <v>75</v>
+      </c>
+      <c r="V12" s="2">
+        <v>2011</v>
       </c>
       <c r="X12" s="2">
         <v>7</v>
       </c>
-      <c r="Y12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA12" s="2">
+      <c r="Y12" s="2">
         <v>7</v>
       </c>
-      <c r="AB12" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE12" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>2011</v>
+      <c r="Z12" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="AI12" s="2">
         <v>7</v>
       </c>
-      <c r="AJ12" s="2">
+      <c r="AJ12" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU12" s="2">
         <v>7</v>
       </c>
-      <c r="AK12" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>7</v>
-      </c>
-      <c r="AN12" s="2">
+      <c r="BV12" s="2">
         <v>6</v>
       </c>
-      <c r="AO12" s="34">
+      <c r="BW12" s="34">
         <v>43780</v>
       </c>
-      <c r="AP12" s="2">
+      <c r="BX12" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="2:45" ht="30">
+    <row r="13" spans="2:79" ht="30">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -3044,78 +3048,78 @@
       <c r="F13" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>7032300054</v>
+      </c>
       <c r="L13" s="2">
         <v>8</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S13" s="2">
+      <c r="M13" s="2">
         <v>8</v>
       </c>
-      <c r="T13" s="2">
+      <c r="N13" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="2">
         <v>8</v>
       </c>
+      <c r="Q13" s="2">
+        <v>3</v>
+      </c>
+      <c r="R13" s="3">
+        <v>12</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="T13" s="21" t="s">
+        <v>168</v>
+      </c>
       <c r="U13" s="2">
-        <v>7032300054</v>
-      </c>
-      <c r="W13" s="2">
-        <v>8</v>
+        <v>86</v>
+      </c>
+      <c r="V13" s="2">
+        <v>2013</v>
       </c>
       <c r="X13" s="2">
         <v>8</v>
       </c>
-      <c r="Y13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA13" s="2">
+      <c r="Y13" s="2">
         <v>8</v>
       </c>
-      <c r="AB13" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC13" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AE13" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF13" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>2013</v>
+      <c r="Z13" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="AI13" s="2">
         <v>8</v>
       </c>
-      <c r="AJ13" s="2">
+      <c r="AJ13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK13" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU13" s="2">
         <v>8</v>
       </c>
-      <c r="AK13" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>8</v>
-      </c>
-      <c r="AN13" s="2">
+      <c r="BV13" s="2">
         <v>1</v>
       </c>
-      <c r="AO13" s="34">
+      <c r="BW13" s="34">
         <v>43665</v>
       </c>
-      <c r="AP13" s="2">
+      <c r="BX13" s="2">
         <v>1270</v>
       </c>
-      <c r="AS13" s="34"/>
-    </row>
-    <row r="14" spans="2:45" ht="30">
+      <c r="CA13" s="34"/>
+    </row>
+    <row r="14" spans="2:79" ht="30">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -3131,77 +3135,77 @@
       <c r="F14" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="H14" s="2">
+        <v>9</v>
+      </c>
+      <c r="I14" s="2">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2">
+        <v>7032300059</v>
+      </c>
       <c r="L14" s="2">
         <v>9</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" s="2">
+      <c r="M14" s="2">
         <v>9</v>
       </c>
-      <c r="T14" s="2">
+      <c r="N14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="2">
         <v>9</v>
       </c>
+      <c r="Q14" s="2">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T14" s="21" t="s">
+        <v>170</v>
+      </c>
       <c r="U14" s="2">
-        <v>7032300059</v>
-      </c>
-      <c r="W14" s="2">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="V14" s="2">
+        <v>2017</v>
       </c>
       <c r="X14" s="2">
         <v>9</v>
       </c>
-      <c r="Y14" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA14" s="2">
+      <c r="Y14" s="2">
         <v>9</v>
       </c>
-      <c r="AB14" s="2">
-        <v>3</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE14" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>67</v>
-      </c>
-      <c r="AG14" s="2">
-        <v>2017</v>
+      <c r="Z14" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="AI14" s="2">
         <v>9</v>
       </c>
-      <c r="AJ14" s="2">
+      <c r="AJ14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU14" s="2">
         <v>9</v>
       </c>
-      <c r="AK14" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>9</v>
-      </c>
-      <c r="AN14" s="2">
+      <c r="BV14" s="2">
         <v>5</v>
       </c>
-      <c r="AO14" s="34">
+      <c r="BW14" s="34">
         <v>43562</v>
       </c>
-      <c r="AP14" s="2">
+      <c r="BX14" s="2">
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:45" ht="30">
+    <row r="15" spans="2:79" ht="30">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -3217,77 +3221,77 @@
       <c r="F15" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="H15" s="2">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>7032300086</v>
+      </c>
       <c r="L15" s="2">
         <v>10</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S15" s="2">
+      <c r="M15" s="2">
         <v>10</v>
       </c>
-      <c r="T15" s="2">
+      <c r="N15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" s="2">
         <v>10</v>
       </c>
+      <c r="Q15" s="2">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>10</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T15" s="21" t="s">
+        <v>172</v>
+      </c>
       <c r="U15" s="2">
-        <v>7032300086</v>
-      </c>
-      <c r="W15" s="2">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="V15" s="2">
+        <v>2010</v>
       </c>
       <c r="X15" s="2">
         <v>10</v>
       </c>
-      <c r="Y15" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA15" s="2">
+      <c r="Y15" s="2">
         <v>10</v>
       </c>
-      <c r="AB15" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC15" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE15" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF15" s="2">
-        <v>58</v>
-      </c>
-      <c r="AG15" s="2">
-        <v>2010</v>
+      <c r="Z15" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="AI15" s="2">
         <v>10</v>
       </c>
-      <c r="AJ15" s="2">
+      <c r="AJ15" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU15" s="2">
         <v>10</v>
       </c>
-      <c r="AK15" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AM15" s="2">
-        <v>10</v>
-      </c>
-      <c r="AN15" s="2">
+      <c r="BV15" s="2">
         <v>7</v>
       </c>
-      <c r="AO15" s="34">
+      <c r="BW15" s="34">
         <v>43748</v>
       </c>
-      <c r="AP15" s="2">
+      <c r="BX15" s="2">
         <v>2500</v>
       </c>
     </row>
-    <row r="16" spans="2:45" ht="30">
+    <row r="16" spans="2:79" ht="30">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -3303,77 +3307,77 @@
       <c r="F16" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="H16" s="2">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2">
+        <v>11</v>
+      </c>
+      <c r="J16" s="2">
+        <v>7032300082</v>
+      </c>
       <c r="L16" s="2">
         <v>11</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" s="2">
+      <c r="M16" s="2">
         <v>11</v>
       </c>
-      <c r="T16" s="2">
+      <c r="N16" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="2">
         <v>11</v>
       </c>
+      <c r="Q16" s="2">
+        <v>4</v>
+      </c>
+      <c r="R16" s="3">
+        <v>12</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T16" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="U16" s="2">
-        <v>7032300082</v>
-      </c>
-      <c r="W16" s="2">
-        <v>11</v>
+        <v>97</v>
+      </c>
+      <c r="V16" s="2">
+        <v>2012</v>
       </c>
       <c r="X16" s="2">
         <v>11</v>
       </c>
-      <c r="Y16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA16" s="2">
+      <c r="Y16" s="2">
         <v>11</v>
       </c>
-      <c r="AB16" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC16" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE16" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>2012</v>
+      <c r="Z16" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="AI16" s="2">
         <v>11</v>
       </c>
-      <c r="AJ16" s="2">
+      <c r="AJ16" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AK16" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU16" s="2">
         <v>11</v>
       </c>
-      <c r="AK16" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>11</v>
-      </c>
-      <c r="AN16" s="2">
+      <c r="BV16" s="2">
         <v>10</v>
       </c>
-      <c r="AO16" s="34">
+      <c r="BW16" s="34">
         <v>43780</v>
       </c>
-      <c r="AP16" s="2">
+      <c r="BX16" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:42" ht="30">
+    <row r="17" spans="2:76" ht="30">
       <c r="B17" s="2">
         <v>12</v>
       </c>
@@ -3389,77 +3393,77 @@
       <c r="F17" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2">
+        <v>12</v>
+      </c>
+      <c r="J17" s="2">
+        <v>7032300042</v>
+      </c>
       <c r="L17" s="2">
         <v>12</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="S17" s="2">
+      <c r="M17" s="2">
         <v>12</v>
       </c>
-      <c r="T17" s="2">
+      <c r="N17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="P17" s="2">
         <v>12</v>
       </c>
+      <c r="Q17" s="2">
+        <v>4</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T17" s="21" t="s">
+        <v>176</v>
+      </c>
       <c r="U17" s="2">
-        <v>7032300042</v>
-      </c>
-      <c r="W17" s="2">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="V17" s="2">
+        <v>2016</v>
       </c>
       <c r="X17" s="2">
         <v>12</v>
       </c>
-      <c r="Y17" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA17" s="2">
+      <c r="Y17" s="2">
         <v>12</v>
       </c>
-      <c r="AB17" s="2">
-        <v>4</v>
-      </c>
-      <c r="AC17" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE17" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>2016</v>
+      <c r="Z17" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="AI17" s="2">
         <v>12</v>
       </c>
-      <c r="AJ17" s="2">
+      <c r="AJ17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BU17" s="2">
         <v>12</v>
       </c>
-      <c r="AK17" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>12</v>
-      </c>
-      <c r="AN17" s="2">
+      <c r="BV17" s="2">
         <v>14</v>
       </c>
-      <c r="AO17" s="34">
+      <c r="BW17" s="34">
         <v>43667</v>
       </c>
-      <c r="AP17" s="2">
+      <c r="BX17" s="2">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:42" ht="30">
+    <row r="18" spans="2:76" ht="30">
       <c r="B18" s="2">
         <v>13</v>
       </c>
@@ -3475,77 +3479,77 @@
       <c r="F18" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="H18" s="2">
+        <v>13</v>
+      </c>
+      <c r="I18" s="2">
+        <v>13</v>
+      </c>
+      <c r="J18" s="2">
+        <v>7032300055</v>
+      </c>
       <c r="L18" s="2">
         <v>13</v>
       </c>
-      <c r="M18" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="S18" s="2">
+      <c r="M18" s="2">
         <v>13</v>
       </c>
-      <c r="T18" s="2">
+      <c r="N18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P18" s="2">
         <v>13</v>
       </c>
+      <c r="Q18" s="2">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
+        <v>10</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T18" s="21" t="s">
+        <v>164</v>
+      </c>
       <c r="U18" s="2">
-        <v>7032300055</v>
-      </c>
-      <c r="W18" s="2">
-        <v>13</v>
+        <v>56</v>
+      </c>
+      <c r="V18" s="2">
+        <v>2008</v>
       </c>
       <c r="X18" s="2">
         <v>13</v>
       </c>
-      <c r="Y18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA18" s="2">
+      <c r="Y18" s="2">
         <v>13</v>
       </c>
-      <c r="AB18" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE18" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>2008</v>
+      <c r="Z18" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="AI18" s="2">
         <v>13</v>
       </c>
-      <c r="AJ18" s="2">
+      <c r="AJ18" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BU18" s="2">
         <v>13</v>
       </c>
-      <c r="AK18" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM18" s="2">
+      <c r="BV18" s="2">
         <v>13</v>
       </c>
-      <c r="AN18" s="2">
-        <v>13</v>
-      </c>
-      <c r="AO18" s="34">
+      <c r="BW18" s="34">
         <v>43771</v>
       </c>
-      <c r="AP18" s="2">
+      <c r="BX18" s="2">
         <v>655</v>
       </c>
     </row>
-    <row r="19" spans="2:42" ht="30">
+    <row r="19" spans="2:76" ht="30">
       <c r="B19" s="2">
         <v>14</v>
       </c>
@@ -3561,77 +3565,77 @@
       <c r="F19" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="H19" s="2">
+        <v>14</v>
+      </c>
+      <c r="I19" s="2">
+        <v>14</v>
+      </c>
+      <c r="J19" s="2">
+        <v>7032300013</v>
+      </c>
       <c r="L19" s="2">
         <v>14</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S19" s="2">
+      <c r="M19" s="2">
         <v>14</v>
       </c>
-      <c r="T19" s="2">
+      <c r="N19" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="2">
         <v>14</v>
       </c>
+      <c r="Q19" s="2">
+        <v>5</v>
+      </c>
+      <c r="R19" s="3">
+        <v>12</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T19" s="21" t="s">
+        <v>178</v>
+      </c>
       <c r="U19" s="2">
-        <v>7032300013</v>
-      </c>
-      <c r="W19" s="2">
-        <v>14</v>
+        <v>57</v>
+      </c>
+      <c r="V19" s="2">
+        <v>2010</v>
       </c>
       <c r="X19" s="2">
         <v>14</v>
       </c>
-      <c r="Y19" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA19" s="2">
+      <c r="Y19" s="2">
         <v>14</v>
       </c>
-      <c r="AB19" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE19" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF19" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG19" s="2">
-        <v>2010</v>
+      <c r="Z19" s="3" t="s">
+        <v>213</v>
       </c>
       <c r="AI19" s="2">
         <v>14</v>
       </c>
-      <c r="AJ19" s="2">
+      <c r="AJ19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK19" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU19" s="2">
         <v>14</v>
       </c>
-      <c r="AK19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AM19" s="2">
-        <v>14</v>
-      </c>
-      <c r="AN19" s="2">
+      <c r="BV19" s="2">
         <v>4</v>
       </c>
-      <c r="AO19" s="34">
+      <c r="BW19" s="34">
         <v>43477</v>
       </c>
-      <c r="AP19" s="2">
+      <c r="BX19" s="2">
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="2:42" ht="30">
+    <row r="20" spans="2:76" ht="30">
       <c r="B20" s="2">
         <v>15</v>
       </c>
@@ -3647,77 +3651,77 @@
       <c r="F20" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="H20" s="2">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2">
+        <v>15</v>
+      </c>
+      <c r="J20" s="2">
+        <v>7032300099</v>
+      </c>
       <c r="L20" s="2">
         <v>15</v>
       </c>
-      <c r="M20" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" s="2">
+      <c r="M20" s="2">
         <v>15</v>
       </c>
-      <c r="T20" s="2">
+      <c r="N20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P20" s="2">
         <v>15</v>
       </c>
+      <c r="Q20" s="2">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T20" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="U20" s="2">
-        <v>7032300099</v>
-      </c>
-      <c r="W20" s="2">
-        <v>15</v>
+        <v>86</v>
+      </c>
+      <c r="V20" s="2">
+        <v>2014</v>
       </c>
       <c r="X20" s="2">
         <v>15</v>
       </c>
-      <c r="Y20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA20" s="2">
+      <c r="Y20" s="2">
         <v>15</v>
       </c>
-      <c r="AB20" s="2">
-        <v>5</v>
-      </c>
-      <c r="AC20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE20" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>2014</v>
+      <c r="Z20" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="AI20" s="2">
         <v>15</v>
       </c>
-      <c r="AJ20" s="2">
+      <c r="AJ20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AK20" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU20" s="2">
         <v>15</v>
       </c>
-      <c r="AK20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>15</v>
-      </c>
-      <c r="AN20" s="2" t="s">
+      <c r="BV20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO20" s="34">
+      <c r="BW20" s="34">
         <v>43562</v>
       </c>
-      <c r="AP20" s="2">
+      <c r="BX20" s="2">
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="2:42" ht="30">
+    <row r="21" spans="2:76" ht="30">
       <c r="B21" s="2">
         <v>16</v>
       </c>
@@ -3733,77 +3737,77 @@
       <c r="F21" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="H21" s="2">
+        <v>16</v>
+      </c>
+      <c r="I21" s="2">
+        <v>16</v>
+      </c>
+      <c r="J21" s="2">
+        <v>7032300023</v>
+      </c>
       <c r="L21" s="2">
         <v>16</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S21" s="2">
+      <c r="M21" s="2">
         <v>16</v>
       </c>
-      <c r="T21" s="2">
+      <c r="N21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="2">
         <v>16</v>
       </c>
+      <c r="Q21" s="2">
+        <v>6</v>
+      </c>
+      <c r="R21" s="3">
+        <v>10</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T21" s="21" t="s">
+        <v>159</v>
+      </c>
       <c r="U21" s="2">
-        <v>7032300023</v>
-      </c>
-      <c r="W21" s="2">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="V21" s="2">
+        <v>2009</v>
       </c>
       <c r="X21" s="2">
         <v>16</v>
       </c>
-      <c r="Y21" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA21" s="2">
+      <c r="Y21" s="2">
         <v>16</v>
       </c>
-      <c r="AB21" s="2">
-        <v>6</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD21" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE21" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF21" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG21" s="2">
-        <v>2009</v>
+      <c r="Z21" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="AI21" s="2">
         <v>16</v>
       </c>
-      <c r="AJ21" s="2">
+      <c r="AJ21" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU21" s="2">
         <v>16</v>
       </c>
-      <c r="AK21" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AM21" s="2">
-        <v>16</v>
-      </c>
-      <c r="AN21" s="2" t="s">
+      <c r="BV21" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO21" s="34">
+      <c r="BW21" s="34">
         <v>43748</v>
       </c>
-      <c r="AP21" s="2">
+      <c r="BX21" s="2">
         <v>1270</v>
       </c>
     </row>
-    <row r="22" spans="2:42" ht="30">
+    <row r="22" spans="2:76" ht="30">
       <c r="B22" s="2">
         <v>17</v>
       </c>
@@ -3819,77 +3823,77 @@
       <c r="F22" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="H22" s="2">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2">
+        <v>17</v>
+      </c>
+      <c r="J22" s="2">
+        <v>7032300084</v>
+      </c>
       <c r="L22" s="2">
         <v>17</v>
       </c>
-      <c r="M22" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S22" s="2">
+      <c r="M22" s="2">
         <v>17</v>
       </c>
-      <c r="T22" s="2">
+      <c r="N22" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P22" s="2">
         <v>17</v>
       </c>
+      <c r="Q22" s="2">
+        <v>6</v>
+      </c>
+      <c r="R22" s="3">
+        <v>12</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>159</v>
+      </c>
       <c r="U22" s="2">
-        <v>7032300084</v>
-      </c>
-      <c r="W22" s="2">
-        <v>17</v>
+        <v>76</v>
+      </c>
+      <c r="V22" s="2">
+        <v>2011</v>
       </c>
       <c r="X22" s="2">
         <v>17</v>
       </c>
-      <c r="Y22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA22" s="2">
+      <c r="Y22" s="2">
         <v>17</v>
       </c>
-      <c r="AB22" s="2">
-        <v>6</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD22" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE22" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF22" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG22" s="2">
-        <v>2011</v>
+      <c r="Z22" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="AI22" s="2">
         <v>17</v>
       </c>
-      <c r="AJ22" s="2">
+      <c r="AJ22" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK22" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU22" s="2">
         <v>17</v>
       </c>
-      <c r="AK22" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AM22" s="2">
-        <v>17</v>
-      </c>
-      <c r="AN22" s="2" t="s">
+      <c r="BV22" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO22" s="34">
+      <c r="BW22" s="34">
         <v>43780</v>
       </c>
-      <c r="AP22" s="2">
+      <c r="BX22" s="2">
         <v>4588</v>
       </c>
     </row>
-    <row r="23" spans="2:42" ht="30">
+    <row r="23" spans="2:76" ht="30">
       <c r="B23" s="2">
         <v>18</v>
       </c>
@@ -3905,77 +3909,77 @@
       <c r="F23" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="H23" s="2">
+        <v>18</v>
+      </c>
+      <c r="I23" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" s="2">
+        <v>7032300011</v>
+      </c>
       <c r="L23" s="2">
         <v>18</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23" s="2">
+      <c r="M23" s="2">
         <v>18</v>
       </c>
-      <c r="T23" s="2">
+      <c r="N23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" s="2">
         <v>18</v>
       </c>
+      <c r="Q23" s="2">
+        <v>6</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T23" s="21" t="s">
+        <v>162</v>
+      </c>
       <c r="U23" s="2">
-        <v>7032300011</v>
-      </c>
-      <c r="W23" s="2">
-        <v>18</v>
+        <v>87</v>
+      </c>
+      <c r="V23" s="2">
+        <v>2015</v>
       </c>
       <c r="X23" s="2">
         <v>18</v>
       </c>
-      <c r="Y23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA23" s="2">
+      <c r="Y23" s="2">
         <v>18</v>
       </c>
-      <c r="AB23" s="2">
-        <v>6</v>
-      </c>
-      <c r="AC23" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD23" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE23" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF23" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG23" s="2">
-        <v>2015</v>
+      <c r="Z23" s="3" t="s">
+        <v>216</v>
       </c>
       <c r="AI23" s="2">
         <v>18</v>
       </c>
-      <c r="AJ23" s="2">
+      <c r="AJ23" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AK23" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="BU23" s="2">
         <v>18</v>
       </c>
-      <c r="AK23" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM23" s="2">
-        <v>18</v>
-      </c>
-      <c r="AN23" s="2" t="s">
+      <c r="BV23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO23" s="34">
+      <c r="BW23" s="34">
         <v>43667</v>
       </c>
-      <c r="AP23" s="2">
+      <c r="BX23" s="2">
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="2:42" ht="30">
+    <row r="24" spans="2:76" ht="30">
       <c r="B24" s="2">
         <v>19</v>
       </c>
@@ -3991,77 +3995,77 @@
       <c r="F24" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="H24" s="2">
+        <v>19</v>
+      </c>
+      <c r="I24" s="2">
+        <v>19</v>
+      </c>
+      <c r="J24" s="2">
+        <v>7032300066</v>
+      </c>
       <c r="L24" s="2">
         <v>19</v>
       </c>
-      <c r="M24" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="S24" s="2">
+      <c r="M24" s="2">
         <v>19</v>
       </c>
-      <c r="T24" s="2">
+      <c r="N24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="2">
         <v>19</v>
       </c>
+      <c r="Q24" s="2">
+        <v>7</v>
+      </c>
+      <c r="R24" s="3">
+        <v>10</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T24" s="21" t="s">
+        <v>183</v>
+      </c>
       <c r="U24" s="2">
-        <v>7032300066</v>
-      </c>
-      <c r="W24" s="2">
-        <v>19</v>
+        <v>87</v>
+      </c>
+      <c r="V24" s="2">
+        <v>2011</v>
       </c>
       <c r="X24" s="2">
         <v>19</v>
       </c>
-      <c r="Y24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA24" s="2">
+      <c r="Y24" s="2">
         <v>19</v>
       </c>
-      <c r="AB24" s="2">
-        <v>7</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD24" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE24" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF24" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG24" s="2">
-        <v>2011</v>
+      <c r="Z24" s="3" t="s">
+        <v>217</v>
       </c>
       <c r="AI24" s="2">
         <v>19</v>
       </c>
-      <c r="AJ24" s="2">
+      <c r="AJ24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK24" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BU24" s="2">
         <v>19</v>
       </c>
-      <c r="AK24" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="AM24" s="2">
-        <v>19</v>
-      </c>
-      <c r="AN24" s="2" t="s">
+      <c r="BV24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO24" s="34">
+      <c r="BW24" s="34">
         <v>43771</v>
       </c>
-      <c r="AP24" s="2">
+      <c r="BX24" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:42" ht="30">
+    <row r="25" spans="2:76" ht="30">
       <c r="B25" s="2">
         <v>20</v>
       </c>
@@ -4077,1754 +4081,1754 @@
       <c r="F25" s="4" t="s">
         <v>83</v>
       </c>
+      <c r="H25" s="2">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2">
+        <v>20</v>
+      </c>
+      <c r="J25" s="2">
+        <v>7032300096</v>
+      </c>
       <c r="L25" s="2">
         <v>20</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="S25" s="2">
+      <c r="M25" s="2">
         <v>20</v>
       </c>
-      <c r="T25" s="2">
+      <c r="N25" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="2">
         <v>20</v>
       </c>
+      <c r="Q25" s="2">
+        <v>7</v>
+      </c>
+      <c r="R25" s="3">
+        <v>12</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T25" s="21" t="s">
+        <v>157</v>
+      </c>
       <c r="U25" s="2">
-        <v>7032300096</v>
-      </c>
-      <c r="W25" s="2">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="V25" s="2">
+        <v>2013</v>
       </c>
       <c r="X25" s="2">
         <v>20</v>
       </c>
-      <c r="Y25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA25" s="2">
+      <c r="Y25" s="2">
         <v>20</v>
       </c>
-      <c r="AB25" s="2">
-        <v>7</v>
-      </c>
-      <c r="AC25" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD25" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE25" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF25" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG25" s="2">
-        <v>2013</v>
+      <c r="Z25" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="AI25" s="2">
         <v>20</v>
       </c>
-      <c r="AJ25" s="2">
+      <c r="AJ25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BU25" s="2">
         <v>20</v>
       </c>
-      <c r="AK25" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AM25" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN25" s="2" t="s">
+      <c r="BV25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AO25" s="34">
+      <c r="BW25" s="34">
         <v>43477</v>
       </c>
-      <c r="AP25" s="2">
+      <c r="BX25" s="2">
         <v>350</v>
       </c>
     </row>
-    <row r="26" spans="2:42" ht="30" customHeight="1">
+    <row r="26" spans="2:76" ht="30" customHeight="1">
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="14"/>
-      <c r="L26" s="2">
+      <c r="H26" s="2">
         <v>21</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="I26" s="2">
+        <v>1</v>
+      </c>
+      <c r="J26" s="2">
+        <v>7032300034</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="16"/>
+      <c r="P26" s="2">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>7</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T26" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="U26" s="2">
+        <v>97</v>
+      </c>
+      <c r="V26" s="2">
+        <v>2017</v>
+      </c>
+      <c r="X26" s="13"/>
+      <c r="Y26" s="14"/>
+      <c r="AI26" s="2">
+        <v>21</v>
+      </c>
+      <c r="AJ26" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="AK26" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S26" s="2">
+      <c r="BU26" s="2">
         <v>21</v>
       </c>
-      <c r="T26" s="2">
-        <v>1</v>
-      </c>
-      <c r="U26" s="2">
-        <v>7032300034</v>
-      </c>
-      <c r="W26" s="13"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="16"/>
-      <c r="AA26" s="2">
-        <v>21</v>
-      </c>
-      <c r="AB26" s="2">
-        <v>7</v>
-      </c>
-      <c r="AC26" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE26" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF26" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG26" s="2">
-        <v>2017</v>
-      </c>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="14"/>
-      <c r="AM26" s="2">
-        <v>21</v>
-      </c>
-      <c r="AN26" s="30">
+      <c r="BV26" s="30">
         <v>8</v>
       </c>
-      <c r="AO26" s="34">
+      <c r="BW26" s="34">
         <v>43477</v>
       </c>
-      <c r="AP26" s="2">
+      <c r="BX26" s="2">
         <v>4500</v>
       </c>
     </row>
-    <row r="27" spans="2:42" ht="30" customHeight="1">
+    <row r="27" spans="2:76" ht="30" customHeight="1">
       <c r="B27" s="13"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="15"/>
       <c r="F27" s="14"/>
-      <c r="L27" s="2">
+      <c r="H27" s="2">
         <v>22</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="I27" s="2">
+        <v>2</v>
+      </c>
+      <c r="J27" s="2">
+        <v>7032500039</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="16"/>
+      <c r="P27" s="2">
+        <v>22</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
+        <v>10</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T27" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="U27" s="2">
+        <v>56</v>
+      </c>
+      <c r="V27" s="2">
+        <v>2010</v>
+      </c>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="14"/>
+      <c r="AI27" s="2">
+        <v>22</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="AK27" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S27" s="2">
+      <c r="BU27" s="2">
         <v>22</v>
       </c>
-      <c r="T27" s="2">
-        <v>2</v>
-      </c>
-      <c r="U27" s="2">
-        <v>7032500039</v>
-      </c>
-      <c r="W27" s="13"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="16"/>
-      <c r="AA27" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB27" s="2">
-        <v>8</v>
-      </c>
-      <c r="AC27" s="3">
+      <c r="BV27" s="30">
         <v>10</v>
       </c>
-      <c r="AD27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE27" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF27" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG27" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AI27" s="13"/>
-      <c r="AJ27" s="14"/>
-      <c r="AM27" s="2">
-        <v>22</v>
-      </c>
-      <c r="AN27" s="30">
-        <v>10</v>
-      </c>
-      <c r="AO27" s="34">
+      <c r="BW27" s="34">
         <v>43771</v>
       </c>
-      <c r="AP27" s="2">
+      <c r="BX27" s="2">
         <v>650</v>
       </c>
     </row>
-    <row r="28" spans="2:42" ht="30" customHeight="1">
+    <row r="28" spans="2:76" ht="30" customHeight="1">
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="15"/>
       <c r="F28" s="14"/>
-      <c r="L28" s="2">
+      <c r="H28" s="2">
         <v>23</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="I28" s="2">
+        <v>3</v>
+      </c>
+      <c r="J28" s="2">
+        <v>7032700050</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="16"/>
+      <c r="P28" s="2">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>8</v>
+      </c>
+      <c r="R28" s="3">
+        <v>12</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T28" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="U28" s="2">
+        <v>467</v>
+      </c>
+      <c r="V28" s="2">
+        <v>2012</v>
+      </c>
+      <c r="X28" s="13"/>
+      <c r="Y28" s="14"/>
+      <c r="AI28" s="2">
+        <v>23</v>
+      </c>
+      <c r="AJ28" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="AK28" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="S28" s="2">
+      <c r="BU28" s="2">
         <v>23</v>
       </c>
-      <c r="T28" s="2">
-        <v>3</v>
-      </c>
-      <c r="U28" s="2">
-        <v>7032700050</v>
-      </c>
-      <c r="W28" s="13"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="16"/>
-      <c r="AA28" s="2">
-        <v>23</v>
-      </c>
-      <c r="AB28" s="2">
+      <c r="BV28" s="30">
+        <v>4</v>
+      </c>
+      <c r="BW28" s="34">
+        <v>43757</v>
+      </c>
+      <c r="BX28" s="2">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="29" spans="2:76">
+      <c r="H29" s="2">
+        <v>24</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>7032100027</v>
+      </c>
+      <c r="P29" s="2">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="2">
         <v>8</v>
       </c>
-      <c r="AC28" s="3">
+      <c r="R29" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T29" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U29" s="2">
+        <v>87</v>
+      </c>
+      <c r="V29" s="2">
+        <v>2016</v>
+      </c>
+      <c r="X29" s="13"/>
+      <c r="BU29" s="2">
+        <v>24</v>
+      </c>
+      <c r="BV29" s="2">
+        <v>4</v>
+      </c>
+      <c r="BW29" s="34">
+        <v>43685</v>
+      </c>
+      <c r="BX29" s="2">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="30" spans="2:76">
+      <c r="H30" s="2">
+        <v>25</v>
+      </c>
+      <c r="I30" s="2">
+        <v>5</v>
+      </c>
+      <c r="J30" s="2">
+        <v>7032300801</v>
+      </c>
+      <c r="P30" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>9</v>
+      </c>
+      <c r="R30" s="3">
+        <v>10</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T30" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="U30" s="2">
+        <v>98</v>
+      </c>
+      <c r="V30" s="2">
+        <v>2012</v>
+      </c>
+      <c r="BU30" s="2">
+        <v>25</v>
+      </c>
+      <c r="BV30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW30" s="34">
+        <v>43631</v>
+      </c>
+      <c r="BX30" s="2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:76">
+      <c r="E31"/>
+      <c r="H31" s="2">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2">
+        <v>6</v>
+      </c>
+      <c r="J31" s="2">
+        <v>7032300071</v>
+      </c>
+      <c r="N31"/>
+      <c r="P31" s="2">
+        <v>26</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>9</v>
+      </c>
+      <c r="R31" s="3">
         <v>12</v>
       </c>
-      <c r="AD28" s="3" t="s">
+      <c r="S31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="T31" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="U31" s="2">
+        <v>67</v>
+      </c>
+      <c r="V31" s="2">
+        <v>2014</v>
+      </c>
+      <c r="BU31" s="2">
+        <v>26</v>
+      </c>
+      <c r="BV31" s="2">
+        <v>6</v>
+      </c>
+      <c r="BW31" s="34">
+        <v>43498</v>
+      </c>
+      <c r="BX31" s="2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="2:76">
+      <c r="E32"/>
+      <c r="H32" s="2">
+        <v>27</v>
+      </c>
+      <c r="I32" s="2">
+        <v>7</v>
+      </c>
+      <c r="J32" s="2">
+        <v>8032300081</v>
+      </c>
+      <c r="N32"/>
+      <c r="P32" s="2">
+        <v>27</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>9</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T32" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="U32" s="2">
+        <v>87</v>
+      </c>
+      <c r="V32" s="2">
+        <v>2018</v>
+      </c>
+      <c r="BU32" s="2">
+        <v>27</v>
+      </c>
+      <c r="BV32" s="2">
+        <v>2</v>
+      </c>
+      <c r="BW32" s="34">
+        <v>43698</v>
+      </c>
+      <c r="BX32" s="2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="5:76">
+      <c r="E33"/>
+      <c r="H33" s="2">
+        <v>28</v>
+      </c>
+      <c r="I33" s="2">
+        <v>8</v>
+      </c>
+      <c r="J33" s="2">
+        <v>8732300054</v>
+      </c>
+      <c r="N33"/>
+      <c r="P33" s="2">
+        <v>28</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>10</v>
+      </c>
+      <c r="R33" s="3">
+        <v>10</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T33" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="U33" s="2">
+        <v>65</v>
+      </c>
+      <c r="V33" s="2">
+        <v>2012</v>
+      </c>
+      <c r="BU33" s="2">
+        <v>28</v>
+      </c>
+      <c r="BV33" s="2">
+        <v>12</v>
+      </c>
+      <c r="BW33" s="34">
+        <v>43498</v>
+      </c>
+      <c r="BX33" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="5:76">
+      <c r="E34"/>
+      <c r="H34" s="2">
+        <v>29</v>
+      </c>
+      <c r="I34" s="2">
+        <v>9</v>
+      </c>
+      <c r="J34" s="2">
+        <v>9932300059</v>
+      </c>
+      <c r="N34"/>
+      <c r="P34" s="2">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>10</v>
+      </c>
+      <c r="R34" s="3">
+        <v>12</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T34" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U34" s="2">
+        <v>76</v>
+      </c>
+      <c r="V34" s="2">
+        <v>2014</v>
+      </c>
+      <c r="BU34" s="2">
+        <v>29</v>
+      </c>
+      <c r="BV34" s="2">
+        <v>12</v>
+      </c>
+      <c r="BW34" s="34">
+        <v>43477</v>
+      </c>
+      <c r="BX34" s="2">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="5:76">
+      <c r="E35"/>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2">
+        <v>10</v>
+      </c>
+      <c r="J35" s="2">
+        <v>9732300086</v>
+      </c>
+      <c r="N35"/>
+      <c r="P35" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="T35" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="U35" s="2">
+        <v>61</v>
+      </c>
+      <c r="V35" s="2">
+        <v>2018</v>
+      </c>
+      <c r="BU35" s="2">
+        <v>30</v>
+      </c>
+      <c r="BV35" s="2">
+        <v>6</v>
+      </c>
+      <c r="BW35" s="34">
+        <v>43656</v>
+      </c>
+      <c r="BX35" s="2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="36" spans="5:76">
+      <c r="E36"/>
+      <c r="H36" s="2">
+        <v>31</v>
+      </c>
+      <c r="I36" s="2">
+        <v>11</v>
+      </c>
+      <c r="J36" s="2">
+        <v>9772300082</v>
+      </c>
+      <c r="N36"/>
+      <c r="P36" s="2">
+        <v>31</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>11</v>
+      </c>
+      <c r="R36" s="3">
+        <v>10</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="T36" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U36" s="2">
+        <v>62</v>
+      </c>
+      <c r="V36" s="2">
+        <v>2011</v>
+      </c>
+      <c r="BU36" s="2">
+        <v>31</v>
+      </c>
+      <c r="BV36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BW36" s="34">
+        <v>43781</v>
+      </c>
+      <c r="BX36" s="2">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="37" spans="5:76">
+      <c r="H37" s="2">
+        <v>32</v>
+      </c>
+      <c r="I37" s="2">
+        <v>12</v>
+      </c>
+      <c r="J37" s="2">
+        <v>9832306042</v>
+      </c>
+      <c r="P37" s="2">
+        <v>32</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>11</v>
+      </c>
+      <c r="R37" s="3">
+        <v>12</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="U37" s="2">
+        <v>63</v>
+      </c>
+      <c r="V37" s="2">
+        <v>2013</v>
+      </c>
+      <c r="BU37" s="2">
+        <v>32</v>
+      </c>
+      <c r="BV37" s="2">
+        <v>5</v>
+      </c>
+      <c r="BW37" s="34">
+        <v>43527</v>
+      </c>
+      <c r="BX37" s="2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="38" spans="5:76">
+      <c r="H38" s="2">
+        <v>33</v>
+      </c>
+      <c r="I38" s="2">
+        <v>13</v>
+      </c>
+      <c r="J38" s="2">
+        <v>8832356055</v>
+      </c>
+      <c r="P38" s="2">
+        <v>33</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>11</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T38" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="U38" s="2">
+        <v>56</v>
+      </c>
+      <c r="V38" s="2">
+        <v>2017</v>
+      </c>
+      <c r="BU38" s="2">
+        <v>33</v>
+      </c>
+      <c r="BV38" s="2">
+        <v>7</v>
+      </c>
+      <c r="BW38" s="34">
+        <v>43639</v>
+      </c>
+      <c r="BX38" s="2">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="39" spans="5:76">
+      <c r="H39" s="2">
+        <v>34</v>
+      </c>
+      <c r="I39" s="2">
+        <v>14</v>
+      </c>
+      <c r="J39" s="2">
+        <v>7732398013</v>
+      </c>
+      <c r="P39" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>12</v>
+      </c>
+      <c r="R39" s="3">
+        <v>10</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="U39" s="2">
+        <v>75</v>
+      </c>
+      <c r="V39" s="2">
+        <v>2010</v>
+      </c>
+      <c r="BU39" s="2">
+        <v>34</v>
+      </c>
+      <c r="BV39" s="2">
+        <v>10</v>
+      </c>
+      <c r="BW39" s="34">
+        <v>43484</v>
+      </c>
+      <c r="BX39" s="2">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="40" spans="5:76">
+      <c r="H40" s="2">
+        <v>35</v>
+      </c>
+      <c r="I40" s="2">
+        <v>15</v>
+      </c>
+      <c r="J40" s="2">
+        <v>8932393099</v>
+      </c>
+      <c r="P40" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>12</v>
+      </c>
+      <c r="R40" s="3">
+        <v>12</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T40" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U40" s="2">
+        <v>45</v>
+      </c>
+      <c r="V40" s="2">
+        <v>2012</v>
+      </c>
+      <c r="BU40" s="2">
+        <v>35</v>
+      </c>
+      <c r="BV40" s="2">
+        <v>14</v>
+      </c>
+      <c r="BW40" s="34">
+        <v>43748</v>
+      </c>
+      <c r="BX40" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41" spans="5:76">
+      <c r="H41" s="2">
+        <v>36</v>
+      </c>
+      <c r="I41" s="2">
+        <v>16</v>
+      </c>
+      <c r="J41" s="2">
+        <v>7932305623</v>
+      </c>
+      <c r="P41" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>12</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="T41" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="U41" s="2">
+        <v>50</v>
+      </c>
+      <c r="V41" s="2">
+        <v>2016</v>
+      </c>
+      <c r="BU41" s="2">
+        <v>36</v>
+      </c>
+      <c r="BV41" s="2">
+        <v>13</v>
+      </c>
+      <c r="BW41" s="34">
+        <v>43477</v>
+      </c>
+      <c r="BX41" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="5:76">
+      <c r="H42" s="2">
+        <v>37</v>
+      </c>
+      <c r="I42" s="2">
+        <v>17</v>
+      </c>
+      <c r="J42" s="2">
+        <v>7832303384</v>
+      </c>
+      <c r="P42" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>13</v>
+      </c>
+      <c r="R42" s="3">
+        <v>10</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T42" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="U42" s="2">
+        <v>67</v>
+      </c>
+      <c r="V42" s="2">
+        <v>2012</v>
+      </c>
+      <c r="BU42" s="2">
+        <v>37</v>
+      </c>
+      <c r="BV42" s="2">
+        <v>4</v>
+      </c>
+      <c r="BW42" s="34">
+        <v>43639</v>
+      </c>
+      <c r="BX42" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="43" spans="5:76">
+      <c r="H43" s="2">
+        <v>38</v>
+      </c>
+      <c r="I43" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" s="2">
+        <v>8032301231</v>
+      </c>
+      <c r="P43" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>13</v>
+      </c>
+      <c r="R43" s="3">
+        <v>12</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T43" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="U43" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" s="2">
+        <v>2014</v>
+      </c>
+      <c r="BU43" s="31">
+        <v>38</v>
+      </c>
+      <c r="BV43" s="31">
+        <v>2</v>
+      </c>
+      <c r="BW43" s="34">
+        <v>43484</v>
+      </c>
+      <c r="BX43" s="2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44" spans="5:76">
+      <c r="H44" s="2">
+        <v>39</v>
+      </c>
+      <c r="I44" s="2">
+        <v>19</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9032356766</v>
+      </c>
+      <c r="P44" s="2">
+        <v>39</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>13</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T44" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U44" s="2">
+        <v>68</v>
+      </c>
+      <c r="V44" s="2">
+        <v>2018</v>
+      </c>
+      <c r="BU44" s="2">
+        <v>39</v>
+      </c>
+      <c r="BV44" s="2">
+        <v>5</v>
+      </c>
+      <c r="BW44" s="34">
+        <v>43748</v>
+      </c>
+      <c r="BX44" s="33">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="45" spans="5:76">
+      <c r="H45" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" s="2">
+        <v>20</v>
+      </c>
+      <c r="J45" s="2">
+        <v>7832356196</v>
+      </c>
+      <c r="P45" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>14</v>
+      </c>
+      <c r="R45" s="3">
+        <v>10</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T45" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U45" s="2">
+        <v>67</v>
+      </c>
+      <c r="V45" s="2">
+        <v>2013</v>
+      </c>
+      <c r="BU45" s="2">
+        <v>40</v>
+      </c>
+      <c r="BV45" s="30">
+        <v>8</v>
+      </c>
+      <c r="BW45" s="34">
+        <v>43477</v>
+      </c>
+      <c r="BX45" s="33">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="46" spans="5:76">
+      <c r="P46" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>14</v>
+      </c>
+      <c r="R46" s="3">
+        <v>12</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="T46" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U46" s="2">
+        <v>87</v>
+      </c>
+      <c r="V46" s="2">
+        <v>2015</v>
+      </c>
+      <c r="BV46" s="32"/>
+    </row>
+    <row r="47" spans="5:76">
+      <c r="P47" s="2">
+        <v>42</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>14</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="T47" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="U47" s="2">
+        <v>57</v>
+      </c>
+      <c r="V47" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" spans="5:76">
+      <c r="P48" s="2">
+        <v>43</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>15</v>
+      </c>
+      <c r="R48" s="3">
+        <v>10</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T48" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="U48" s="2">
+        <v>96</v>
+      </c>
+      <c r="V48" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="49" spans="16:22">
+      <c r="P49" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>15</v>
+      </c>
+      <c r="R49" s="3">
+        <v>12</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="T49" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="U49" s="2">
+        <v>56</v>
+      </c>
+      <c r="V49" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="50" spans="16:22">
+      <c r="P50" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>15</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S50" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AE28" s="21" t="s">
+      <c r="T50" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="U50" s="2">
+        <v>65</v>
+      </c>
+      <c r="V50" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="51" spans="16:22">
+      <c r="P51" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>16</v>
+      </c>
+      <c r="R51" s="3">
+        <v>10</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="T51" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U51" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" s="2">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="52" spans="16:22">
+      <c r="P52" s="2">
+        <v>47</v>
+      </c>
+      <c r="Q52" s="2">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3">
+        <v>12</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="T52" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="U52" s="2">
+        <v>56</v>
+      </c>
+      <c r="V52" s="2">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="16:22">
+      <c r="P53" s="2">
+        <v>48</v>
+      </c>
+      <c r="Q53" s="2">
+        <v>16</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T53" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U53" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" s="2">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="54" spans="16:22">
+      <c r="P54" s="2">
+        <v>49</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>17</v>
+      </c>
+      <c r="R54" s="3">
+        <v>10</v>
+      </c>
+      <c r="S54" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T54" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U54" s="2">
+        <v>88</v>
+      </c>
+      <c r="V54" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="55" spans="16:22">
+      <c r="P55" s="2">
+        <v>50</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>17</v>
+      </c>
+      <c r="R55" s="3">
+        <v>12</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="T55" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="U55" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="56" spans="16:22">
+      <c r="P56" s="2">
+        <v>51</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>17</v>
+      </c>
+      <c r="R56" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T56" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="U56" s="2">
+        <v>68</v>
+      </c>
+      <c r="V56" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" spans="16:22">
+      <c r="P57" s="2">
+        <v>52</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>18</v>
+      </c>
+      <c r="R57" s="3">
+        <v>10</v>
+      </c>
+      <c r="S57" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T57" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="U57" s="2">
+        <v>86</v>
+      </c>
+      <c r="V57" s="2">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="58" spans="16:22">
+      <c r="P58" s="2">
+        <v>53</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>18</v>
+      </c>
+      <c r="R58" s="3">
+        <v>12</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="T58" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="U58" s="2">
+        <v>57</v>
+      </c>
+      <c r="V58" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="59" spans="16:22">
+      <c r="P59" s="2">
+        <v>54</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>18</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T59" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="U59" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="60" spans="16:22">
+      <c r="P60" s="2">
+        <v>55</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>19</v>
+      </c>
+      <c r="R60" s="3">
+        <v>10</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="T60" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="U60" s="2">
+        <v>69</v>
+      </c>
+      <c r="V60" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="61" spans="16:22">
+      <c r="P61" s="2">
+        <v>56</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>19</v>
+      </c>
+      <c r="R61" s="3">
+        <v>12</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="T61" s="21" t="s">
         <v>168</v>
       </c>
-      <c r="AF28" s="2">
-        <v>467</v>
-      </c>
-      <c r="AG28" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="14"/>
-      <c r="AM28" s="2">
-        <v>23</v>
-      </c>
-      <c r="AN28" s="30">
-        <v>4</v>
-      </c>
-      <c r="AO28" s="34">
-        <v>43757</v>
-      </c>
-      <c r="AP28" s="2">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="29" spans="2:42">
-      <c r="S29" s="2">
-        <v>24</v>
-      </c>
-      <c r="T29" s="2">
-        <v>4</v>
-      </c>
-      <c r="U29" s="2">
-        <v>7032100027</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>24</v>
-      </c>
-      <c r="AB29" s="2">
-        <v>8</v>
-      </c>
-      <c r="AC29" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD29" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE29" s="21" t="s">
+      <c r="U61" s="2">
+        <v>60</v>
+      </c>
+      <c r="V61" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="62" spans="16:22">
+      <c r="P62" s="2">
+        <v>57</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>19</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="T62" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="AF29" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG29" s="2">
-        <v>2016</v>
-      </c>
-      <c r="AI29" s="13"/>
-      <c r="AM29" s="2">
-        <v>24</v>
-      </c>
-      <c r="AN29" s="2">
-        <v>4</v>
-      </c>
-      <c r="AO29" s="34">
-        <v>43685</v>
-      </c>
-      <c r="AP29" s="2">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="30" spans="2:42">
-      <c r="S30" s="2">
-        <v>25</v>
-      </c>
-      <c r="T30" s="2">
-        <v>5</v>
-      </c>
-      <c r="U30" s="2">
-        <v>7032300801</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>25</v>
-      </c>
-      <c r="AB30" s="2">
-        <v>9</v>
-      </c>
-      <c r="AC30" s="3">
+      <c r="U62" s="2">
+        <v>61</v>
+      </c>
+      <c r="V62" s="2">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" spans="16:22">
+      <c r="P63" s="2">
+        <v>58</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>20</v>
+      </c>
+      <c r="R63" s="3">
         <v>10</v>
       </c>
-      <c r="AD30" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE30" s="21" t="s">
+      <c r="S63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="T63" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="AF30" s="2">
-        <v>98</v>
-      </c>
-      <c r="AG30" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AM30" s="2">
-        <v>25</v>
-      </c>
-      <c r="AN30" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO30" s="34">
-        <v>43631</v>
-      </c>
-      <c r="AP30" s="2">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="31" spans="2:42">
-      <c r="E31"/>
-      <c r="S31" s="2">
-        <v>26</v>
-      </c>
-      <c r="T31" s="2">
-        <v>6</v>
-      </c>
-      <c r="U31" s="2">
-        <v>7032300071</v>
-      </c>
-      <c r="Y31"/>
-      <c r="AA31" s="2">
-        <v>26</v>
-      </c>
-      <c r="AB31" s="2">
-        <v>9</v>
-      </c>
-      <c r="AC31" s="3">
+      <c r="U63" s="2">
+        <v>72</v>
+      </c>
+      <c r="V63" s="2">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="64" spans="16:22">
+      <c r="P64" s="2">
+        <v>59</v>
+      </c>
+      <c r="Q64" s="2">
+        <v>20</v>
+      </c>
+      <c r="R64" s="3">
         <v>12</v>
       </c>
-      <c r="AD31" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE31" s="21" t="s">
+      <c r="S64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="T64" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="AF31" s="2">
-        <v>67</v>
-      </c>
-      <c r="AG31" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AM31" s="2">
-        <v>26</v>
-      </c>
-      <c r="AN31" s="2">
-        <v>6</v>
-      </c>
-      <c r="AO31" s="34">
-        <v>43498</v>
-      </c>
-      <c r="AP31" s="2">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="2:42">
-      <c r="E32"/>
-      <c r="S32" s="2">
-        <v>27</v>
-      </c>
-      <c r="T32" s="2">
-        <v>7</v>
-      </c>
-      <c r="U32" s="2">
-        <v>8032300081</v>
-      </c>
-      <c r="Y32"/>
-      <c r="AA32" s="2">
-        <v>27</v>
-      </c>
-      <c r="AB32" s="2">
-        <v>9</v>
-      </c>
-      <c r="AC32" s="3" t="s">
+      <c r="U64" s="2">
+        <v>83</v>
+      </c>
+      <c r="V64" s="2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="65" spans="16:22">
+      <c r="P65" s="2">
+        <v>60</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>20</v>
+      </c>
+      <c r="R65" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="AD32" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE32" s="21" t="s">
+      <c r="S65" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T65" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="AF32" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG32" s="2">
-        <v>2018</v>
-      </c>
-      <c r="AM32" s="2">
-        <v>27</v>
-      </c>
-      <c r="AN32" s="2">
-        <v>2</v>
-      </c>
-      <c r="AO32" s="34">
-        <v>43698</v>
-      </c>
-      <c r="AP32" s="2">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="5:42">
-      <c r="E33"/>
-      <c r="S33" s="2">
-        <v>28</v>
-      </c>
-      <c r="T33" s="2">
-        <v>8</v>
-      </c>
-      <c r="U33" s="2">
-        <v>8732300054</v>
-      </c>
-      <c r="Y33"/>
-      <c r="AA33" s="2">
-        <v>28</v>
-      </c>
-      <c r="AB33" s="2">
-        <v>10</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD33" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE33" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF33" s="2">
-        <v>65</v>
-      </c>
-      <c r="AG33" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AM33" s="2">
-        <v>28</v>
-      </c>
-      <c r="AN33" s="2">
-        <v>12</v>
-      </c>
-      <c r="AO33" s="34">
-        <v>43498</v>
-      </c>
-      <c r="AP33" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="5:42">
-      <c r="E34"/>
-      <c r="S34" s="2">
-        <v>29</v>
-      </c>
-      <c r="T34" s="2">
-        <v>9</v>
-      </c>
-      <c r="U34" s="2">
-        <v>9932300059</v>
-      </c>
-      <c r="Y34"/>
-      <c r="AA34" s="2">
-        <v>29</v>
-      </c>
-      <c r="AB34" s="2">
-        <v>10</v>
-      </c>
-      <c r="AC34" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD34" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE34" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF34" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG34" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AM34" s="2">
-        <v>29</v>
-      </c>
-      <c r="AN34" s="2">
-        <v>12</v>
-      </c>
-      <c r="AO34" s="34">
-        <v>43477</v>
-      </c>
-      <c r="AP34" s="2">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="35" spans="5:42">
-      <c r="E35"/>
-      <c r="S35" s="2">
-        <v>30</v>
-      </c>
-      <c r="T35" s="2">
-        <v>10</v>
-      </c>
-      <c r="U35" s="2">
-        <v>9732300086</v>
-      </c>
-      <c r="Y35"/>
-      <c r="AA35" s="2">
-        <v>30</v>
-      </c>
-      <c r="AB35" s="2">
-        <v>10</v>
-      </c>
-      <c r="AC35" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD35" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE35" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF35" s="2">
-        <v>61</v>
-      </c>
-      <c r="AG35" s="2">
-        <v>2018</v>
-      </c>
-      <c r="AM35" s="2">
-        <v>30</v>
-      </c>
-      <c r="AN35" s="2">
-        <v>6</v>
-      </c>
-      <c r="AO35" s="34">
-        <v>43656</v>
-      </c>
-      <c r="AP35" s="2">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="36" spans="5:42">
-      <c r="E36"/>
-      <c r="S36" s="2">
-        <v>31</v>
-      </c>
-      <c r="T36" s="2">
-        <v>11</v>
-      </c>
-      <c r="U36" s="2">
-        <v>9772300082</v>
-      </c>
-      <c r="Y36"/>
-      <c r="AA36" s="2">
-        <v>31</v>
-      </c>
-      <c r="AB36" s="2">
-        <v>11</v>
-      </c>
-      <c r="AC36" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD36" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE36" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF36" s="2">
-        <v>62</v>
-      </c>
-      <c r="AG36" s="2">
-        <v>2011</v>
-      </c>
-      <c r="AM36" s="2">
-        <v>31</v>
-      </c>
-      <c r="AN36" s="2">
-        <v>1</v>
-      </c>
-      <c r="AO36" s="34">
-        <v>43781</v>
-      </c>
-      <c r="AP36" s="2">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="37" spans="5:42">
-      <c r="S37" s="2">
-        <v>32</v>
-      </c>
-      <c r="T37" s="2">
-        <v>12</v>
-      </c>
-      <c r="U37" s="2">
-        <v>9832306042</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>32</v>
-      </c>
-      <c r="AB37" s="2">
-        <v>11</v>
-      </c>
-      <c r="AC37" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD37" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE37" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF37" s="2">
-        <v>63</v>
-      </c>
-      <c r="AG37" s="2">
-        <v>2013</v>
-      </c>
-      <c r="AM37" s="2">
-        <v>32</v>
-      </c>
-      <c r="AN37" s="2">
-        <v>5</v>
-      </c>
-      <c r="AO37" s="34">
-        <v>43527</v>
-      </c>
-      <c r="AP37" s="2">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="38" spans="5:42">
-      <c r="S38" s="2">
-        <v>33</v>
-      </c>
-      <c r="T38" s="2">
-        <v>13</v>
-      </c>
-      <c r="U38" s="2">
-        <v>8832356055</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>33</v>
-      </c>
-      <c r="AB38" s="2">
-        <v>11</v>
-      </c>
-      <c r="AC38" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="AD38" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE38" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF38" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG38" s="2">
-        <v>2017</v>
-      </c>
-      <c r="AM38" s="2">
-        <v>33</v>
-      </c>
-      <c r="AN38" s="2">
-        <v>7</v>
-      </c>
-      <c r="AO38" s="34">
-        <v>43639</v>
-      </c>
-      <c r="AP38" s="2">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="39" spans="5:42">
-      <c r="S39" s="2">
-        <v>34</v>
-      </c>
-      <c r="T39" s="2">
-        <v>14</v>
-      </c>
-      <c r="U39" s="2">
-        <v>7732398013</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>34</v>
-      </c>
-      <c r="AB39" s="2">
-        <v>12</v>
-      </c>
-      <c r="AC39" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD39" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE39" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF39" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" s="2">
-        <v>2010</v>
-      </c>
-      <c r="AM39" s="2">
-        <v>34</v>
-      </c>
-      <c r="AN39" s="2">
-        <v>10</v>
-      </c>
-      <c r="AO39" s="34">
-        <v>43484</v>
-      </c>
-      <c r="AP39" s="2">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="40" spans="5:42">
-      <c r="S40" s="2">
-        <v>35</v>
-      </c>
-      <c r="T40" s="2">
-        <v>15</v>
-      </c>
-      <c r="U40" s="2">
-        <v>8932393099</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB40" s="2">
-        <v>12</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD40" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE40" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF40" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG40" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AM40" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN40" s="2">
-        <v>14</v>
-      </c>
-      <c r="AO40" s="34">
-        <v>43748</v>
-      </c>
-      <c r="AP40" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="5:42">
-      <c r="S41" s="2">
-        <v>36</v>
-      </c>
-      <c r="T41" s="2">
-        <v>16</v>
-      </c>
-      <c r="U41" s="2">
-        <v>7932305623</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB41" s="2">
-        <v>12</v>
-      </c>
-      <c r="AC41" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD41" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE41" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF41" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG41" s="2">
-        <v>2016</v>
-      </c>
-      <c r="AM41" s="2">
-        <v>36</v>
-      </c>
-      <c r="AN41" s="2">
-        <v>13</v>
-      </c>
-      <c r="AO41" s="34">
-        <v>43477</v>
-      </c>
-      <c r="AP41" s="2">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="5:42">
-      <c r="S42" s="2">
-        <v>37</v>
-      </c>
-      <c r="T42" s="2">
-        <v>17</v>
-      </c>
-      <c r="U42" s="2">
-        <v>7832303384</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB42" s="2">
-        <v>13</v>
-      </c>
-      <c r="AC42" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD42" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE42" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF42" s="2">
-        <v>67</v>
-      </c>
-      <c r="AG42" s="2">
-        <v>2012</v>
-      </c>
-      <c r="AM42" s="2">
-        <v>37</v>
-      </c>
-      <c r="AN42" s="2">
-        <v>4</v>
-      </c>
-      <c r="AO42" s="34">
-        <v>43639</v>
-      </c>
-      <c r="AP42" s="2">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="43" spans="5:42">
-      <c r="S43" s="2">
-        <v>38</v>
-      </c>
-      <c r="T43" s="2">
-        <v>18</v>
-      </c>
-      <c r="U43" s="2">
-        <v>8032301231</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB43" s="2">
-        <v>13</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD43" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE43" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF43" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" s="2">
-        <v>2014</v>
-      </c>
-      <c r="AM43" s="31">
-        <v>38</v>
-      </c>
-      <c r="AN43" s="31">
-        <v>2</v>
-      </c>
-      <c r="AO43" s="34">
-        <v>43484</v>
-      </c>
-      <c r="AP43" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="44" spans="5:42">
-      <c r="S44" s="2">
-        <v>39</v>
-      </c>
-      <c r="T44" s="2">
-        <v>19</v>
-      </c>
-      <c r="U44" s="2">
-        <v>9032356766</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB44" s="2">
-        <v>13</v>
-      </c>
-      <c r="AC44" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD44" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE44" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF44" s="2">
-        <v>68</v>
-      </c>
-      <c r="AG44" s="2">
-        <v>2018</v>
-      </c>
-      <c r="AM44" s="2">
-        <v>39</v>
-      </c>
-      <c r="AN44" s="2">
-        <v>5</v>
-      </c>
-      <c r="AO44" s="34">
-        <v>43748</v>
-      </c>
-      <c r="AP44" s="33">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="45" spans="5:42">
-      <c r="S45" s="2">
-        <v>40</v>
-      </c>
-      <c r="T45" s="2">
-        <v>20</v>
-      </c>
-      <c r="U45" s="2">
-        <v>7832356196</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB45" s="2">
-        <v>14</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD45" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE45" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF45" s="2">
-        <v>67</v>
-      </c>
-      <c r="AG45" s="2">
-        <v>2013</v>
-      </c>
-      <c r="AM45" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN45" s="30">
-        <v>8</v>
-      </c>
-      <c r="AO45" s="34">
-        <v>43477</v>
-      </c>
-      <c r="AP45" s="33">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="46" spans="5:42">
-      <c r="AA46" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB46" s="2">
-        <v>14</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD46" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AE46" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF46" s="2">
-        <v>87</v>
-      </c>
-      <c r="AG46" s="2">
-        <v>2015</v>
-      </c>
-      <c r="AN46" s="32"/>
-    </row>
-    <row r="47" spans="5:42">
-      <c r="AA47" s="2">
-        <v>42</v>
-      </c>
-      <c r="AB47" s="2">
-        <v>14</v>
-      </c>
-      <c r="AC47" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD47" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="AE47" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF47" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG47" s="2">
+      <c r="U65" s="2">
+        <v>72</v>
+      </c>
+      <c r="V65" s="2">
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="5:42">
-      <c r="AA48" s="2">
-        <v>43</v>
-      </c>
-      <c r="AB48" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD48" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE48" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF48" s="2">
-        <v>96</v>
-      </c>
-      <c r="AG48" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="49" spans="27:33">
-      <c r="AA49" s="2">
-        <v>44</v>
-      </c>
-      <c r="AB49" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD49" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE49" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF49" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG49" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="50" spans="27:33">
-      <c r="AA50" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" s="2">
-        <v>15</v>
-      </c>
-      <c r="AC50" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD50" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE50" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF50" s="2">
-        <v>65</v>
-      </c>
-      <c r="AG50" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="51" spans="27:33">
-      <c r="AA51" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB51" s="2">
-        <v>16</v>
-      </c>
-      <c r="AC51" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD51" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AE51" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF51" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG51" s="2">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="52" spans="27:33">
-      <c r="AA52" s="2">
-        <v>47</v>
-      </c>
-      <c r="AB52" s="2">
-        <v>16</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD52" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE52" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF52" s="2">
-        <v>56</v>
-      </c>
-      <c r="AG52" s="2">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="53" spans="27:33">
-      <c r="AA53" s="2">
-        <v>48</v>
-      </c>
-      <c r="AB53" s="2">
-        <v>16</v>
-      </c>
-      <c r="AC53" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD53" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE53" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF53" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG53" s="2">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="54" spans="27:33">
-      <c r="AA54" s="2">
-        <v>49</v>
-      </c>
-      <c r="AB54" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD54" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE54" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF54" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG54" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="55" spans="27:33">
-      <c r="AA55" s="2">
-        <v>50</v>
-      </c>
-      <c r="AB55" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC55" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD55" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE55" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF55" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG55" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="56" spans="27:33">
-      <c r="AA56" s="2">
-        <v>51</v>
-      </c>
-      <c r="AB56" s="2">
-        <v>17</v>
-      </c>
-      <c r="AC56" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD56" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE56" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF56" s="2">
-        <v>68</v>
-      </c>
-      <c r="AG56" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="57" spans="27:33">
-      <c r="AA57" s="2">
-        <v>52</v>
-      </c>
-      <c r="AB57" s="2">
-        <v>18</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD57" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE57" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF57" s="2">
-        <v>86</v>
-      </c>
-      <c r="AG57" s="2">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="58" spans="27:33">
-      <c r="AA58" s="2">
-        <v>53</v>
-      </c>
-      <c r="AB58" s="2">
-        <v>18</v>
-      </c>
-      <c r="AC58" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD58" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE58" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF58" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG58" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="59" spans="27:33">
-      <c r="AA59" s="2">
-        <v>54</v>
-      </c>
-      <c r="AB59" s="2">
-        <v>18</v>
-      </c>
-      <c r="AC59" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD59" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE59" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="AF59" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG59" s="2">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="60" spans="27:33">
-      <c r="AA60" s="2">
-        <v>55</v>
-      </c>
-      <c r="AB60" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC60" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD60" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE60" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="AF60" s="2">
-        <v>69</v>
-      </c>
-      <c r="AG60" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="61" spans="27:33">
-      <c r="AA61" s="2">
-        <v>56</v>
-      </c>
-      <c r="AB61" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC61" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD61" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AE61" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF61" s="2">
-        <v>60</v>
-      </c>
-      <c r="AG61" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="62" spans="27:33">
-      <c r="AA62" s="2">
-        <v>57</v>
-      </c>
-      <c r="AB62" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC62" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD62" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE62" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="AF62" s="2">
-        <v>61</v>
-      </c>
-      <c r="AG62" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="63" spans="27:33">
-      <c r="AA63" s="2">
-        <v>58</v>
-      </c>
-      <c r="AB63" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC63" s="3">
-        <v>10</v>
-      </c>
-      <c r="AD63" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE63" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF63" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG63" s="2">
-        <v>2013</v>
-      </c>
-    </row>
-    <row r="64" spans="27:33">
-      <c r="AA64" s="2">
-        <v>59</v>
-      </c>
-      <c r="AB64" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>12</v>
-      </c>
-      <c r="AD64" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AE64" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="AF64" s="2">
-        <v>83</v>
-      </c>
-      <c r="AG64" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="65" spans="27:33">
-      <c r="AA65" s="2">
-        <v>60</v>
-      </c>
-      <c r="AB65" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC65" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="AD65" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE65" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF65" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG65" s="2">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="66" spans="27:33">
-      <c r="AA66" s="13"/>
-      <c r="AB66" s="13"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="23"/>
-      <c r="AE66" s="24"/>
-      <c r="AG66" s="13"/>
-    </row>
-    <row r="67" spans="27:33">
-      <c r="AA67" s="13"/>
-      <c r="AB67" s="13"/>
-      <c r="AC67" s="22"/>
-      <c r="AD67" s="23"/>
-      <c r="AE67" s="24"/>
-      <c r="AG67" s="13"/>
-    </row>
-    <row r="68" spans="27:33">
-      <c r="AA68" s="13"/>
-      <c r="AB68" s="13"/>
-      <c r="AC68" s="22"/>
-      <c r="AD68" s="23"/>
-      <c r="AE68" s="24"/>
-      <c r="AG68" s="13"/>
-    </row>
-    <row r="69" spans="27:33">
-      <c r="AA69" s="13"/>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="22"/>
-      <c r="AD69" s="23"/>
-      <c r="AE69" s="24"/>
-      <c r="AG69" s="13"/>
-    </row>
-    <row r="70" spans="27:33">
-      <c r="AA70" s="13"/>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="22"/>
-      <c r="AD70" s="23"/>
-      <c r="AE70" s="24"/>
-      <c r="AG70" s="13"/>
-    </row>
-    <row r="71" spans="27:33">
-      <c r="AA71" s="13"/>
-      <c r="AB71" s="13"/>
-      <c r="AC71" s="22"/>
-      <c r="AD71" s="23"/>
-      <c r="AE71" s="24"/>
-      <c r="AG71" s="13"/>
-    </row>
-    <row r="72" spans="27:33">
-      <c r="AA72" s="13"/>
-      <c r="AB72" s="13"/>
-      <c r="AC72" s="22"/>
-      <c r="AD72" s="23"/>
-      <c r="AE72" s="24"/>
-      <c r="AG72" s="13"/>
-    </row>
-    <row r="73" spans="27:33">
-      <c r="AA73" s="13"/>
-      <c r="AB73" s="13"/>
-      <c r="AC73" s="22"/>
-      <c r="AD73" s="23"/>
-      <c r="AE73" s="24"/>
-      <c r="AG73" s="13"/>
-    </row>
-    <row r="74" spans="27:33">
-      <c r="AA74" s="13"/>
-      <c r="AB74" s="13"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="23"/>
-      <c r="AE74" s="24"/>
-      <c r="AG74" s="13"/>
-    </row>
-    <row r="75" spans="27:33">
-      <c r="AA75" s="13"/>
-      <c r="AB75" s="13"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="23"/>
-      <c r="AE75" s="24"/>
-      <c r="AG75" s="13"/>
-    </row>
-    <row r="76" spans="27:33">
-      <c r="AA76" s="13"/>
-      <c r="AB76" s="13"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="23"/>
-      <c r="AE76" s="24"/>
-      <c r="AG76" s="13"/>
-    </row>
-    <row r="77" spans="27:33">
-      <c r="AA77" s="13"/>
-      <c r="AB77" s="13"/>
-      <c r="AC77" s="22"/>
-      <c r="AD77" s="23"/>
-      <c r="AE77" s="24"/>
-      <c r="AG77" s="13"/>
-    </row>
-    <row r="78" spans="27:33">
-      <c r="AA78" s="13"/>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="22"/>
-      <c r="AD78" s="23"/>
-      <c r="AE78" s="24"/>
-      <c r="AG78" s="13"/>
-    </row>
-    <row r="79" spans="27:33">
-      <c r="AA79" s="13"/>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="22"/>
-      <c r="AD79" s="23"/>
-      <c r="AE79" s="24"/>
-      <c r="AG79" s="13"/>
-    </row>
-    <row r="80" spans="27:33">
-      <c r="AA80" s="13"/>
-      <c r="AB80" s="13"/>
-      <c r="AC80" s="22"/>
-      <c r="AD80" s="23"/>
-      <c r="AE80" s="24"/>
-      <c r="AG80" s="13"/>
-    </row>
-    <row r="81" spans="27:33">
-      <c r="AA81" s="13"/>
-      <c r="AB81" s="13"/>
-      <c r="AC81" s="22"/>
-      <c r="AD81" s="23"/>
-      <c r="AE81" s="24"/>
-      <c r="AG81" s="13"/>
-    </row>
-    <row r="82" spans="27:33">
-      <c r="AA82" s="13"/>
-      <c r="AB82" s="26"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="23"/>
-      <c r="AE82" s="24"/>
-      <c r="AG82" s="13"/>
-    </row>
-    <row r="83" spans="27:33">
-      <c r="AA83" s="13"/>
-      <c r="AB83" s="26"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="23"/>
-      <c r="AE83" s="24"/>
-      <c r="AG83" s="13"/>
-    </row>
-    <row r="84" spans="27:33">
-      <c r="AA84" s="13"/>
-      <c r="AB84" s="26"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="23"/>
-      <c r="AE84" s="24"/>
-      <c r="AG84" s="13"/>
-    </row>
-    <row r="85" spans="27:33">
-      <c r="AA85" s="13"/>
-      <c r="AB85" s="26"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="23"/>
-      <c r="AE85" s="24"/>
-      <c r="AG85" s="13"/>
-    </row>
-    <row r="86" spans="27:33">
-      <c r="AA86" s="13"/>
-      <c r="AB86" s="26"/>
-      <c r="AC86" s="22"/>
-      <c r="AD86" s="23"/>
-      <c r="AE86" s="24"/>
-      <c r="AG86" s="13"/>
-    </row>
-    <row r="87" spans="27:33">
-      <c r="AA87" s="13"/>
-      <c r="AB87" s="13"/>
-      <c r="AC87" s="22"/>
-      <c r="AD87" s="23"/>
-      <c r="AE87" s="24"/>
-      <c r="AG87" s="13"/>
-    </row>
-    <row r="88" spans="27:33">
-      <c r="AA88" s="26"/>
-      <c r="AB88" s="26"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="28"/>
-      <c r="AE88" s="29"/>
-      <c r="AG88" s="13"/>
-    </row>
-    <row r="89" spans="27:33">
-      <c r="AA89" s="26"/>
-      <c r="AB89" s="26"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="28"/>
-      <c r="AE89" s="29"/>
-      <c r="AG89" s="13"/>
-    </row>
-    <row r="90" spans="27:33">
-      <c r="AA90" s="26"/>
-      <c r="AB90" s="26"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="28"/>
-      <c r="AE90" s="29"/>
-      <c r="AG90" s="13"/>
-    </row>
-    <row r="91" spans="27:33">
-      <c r="AA91" s="26"/>
-      <c r="AB91" s="13"/>
-      <c r="AC91" s="22"/>
-      <c r="AD91" s="23"/>
-      <c r="AE91" s="24"/>
-      <c r="AG91" s="13"/>
-    </row>
-    <row r="92" spans="27:33">
-      <c r="AA92" s="26"/>
-      <c r="AB92" s="13"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="23"/>
-      <c r="AE92" s="24"/>
-      <c r="AG92" s="13"/>
-    </row>
-    <row r="93" spans="27:33">
-      <c r="AA93" s="26"/>
-      <c r="AB93" s="13"/>
-      <c r="AC93" s="22"/>
-      <c r="AD93" s="23"/>
-      <c r="AE93" s="24"/>
-      <c r="AG93" s="13"/>
-    </row>
-    <row r="94" spans="27:33">
-      <c r="AA94" s="26"/>
-      <c r="AB94" s="13"/>
-      <c r="AC94" s="22"/>
-      <c r="AD94" s="23"/>
-      <c r="AE94" s="24"/>
-      <c r="AG94" s="13"/>
-    </row>
-    <row r="95" spans="27:33">
-      <c r="AA95" s="26"/>
-      <c r="AB95" s="26"/>
-      <c r="AC95" s="22"/>
-      <c r="AD95" s="23"/>
-      <c r="AE95" s="24"/>
-      <c r="AG95" s="13"/>
-    </row>
-    <row r="96" spans="27:33">
-      <c r="AA96" s="26"/>
-      <c r="AB96" s="26"/>
-      <c r="AC96" s="22"/>
-      <c r="AD96" s="23"/>
-      <c r="AE96" s="24"/>
-      <c r="AG96" s="13"/>
-    </row>
-    <row r="97" spans="27:33">
-      <c r="AA97" s="26"/>
-      <c r="AB97" s="26"/>
-      <c r="AC97" s="22"/>
-      <c r="AD97" s="23"/>
-      <c r="AE97" s="24"/>
-      <c r="AG97" s="13"/>
-    </row>
-    <row r="98" spans="27:33">
-      <c r="AA98" s="26"/>
-      <c r="AB98" s="26"/>
-      <c r="AD98" s="23"/>
-      <c r="AE98" s="24"/>
-      <c r="AG98" s="13"/>
+    <row r="66" spans="16:22">
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="24"/>
+      <c r="V66" s="13"/>
+    </row>
+    <row r="67" spans="16:22">
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="22"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="24"/>
+      <c r="V67" s="13"/>
+    </row>
+    <row r="68" spans="16:22">
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="24"/>
+      <c r="V68" s="13"/>
+    </row>
+    <row r="69" spans="16:22">
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="22"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="24"/>
+      <c r="V69" s="13"/>
+    </row>
+    <row r="70" spans="16:22">
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="24"/>
+      <c r="V70" s="13"/>
+    </row>
+    <row r="71" spans="16:22">
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+      <c r="R71" s="22"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="24"/>
+      <c r="V71" s="13"/>
+    </row>
+    <row r="72" spans="16:22">
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="22"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="24"/>
+      <c r="V72" s="13"/>
+    </row>
+    <row r="73" spans="16:22">
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="22"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="24"/>
+      <c r="V73" s="13"/>
+    </row>
+    <row r="74" spans="16:22">
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="23"/>
+      <c r="T74" s="24"/>
+      <c r="V74" s="13"/>
+    </row>
+    <row r="75" spans="16:22">
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="24"/>
+      <c r="V75" s="13"/>
+    </row>
+    <row r="76" spans="16:22">
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="23"/>
+      <c r="T76" s="24"/>
+      <c r="V76" s="13"/>
+    </row>
+    <row r="77" spans="16:22">
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="22"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="24"/>
+      <c r="V77" s="13"/>
+    </row>
+    <row r="78" spans="16:22">
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="22"/>
+      <c r="S78" s="23"/>
+      <c r="T78" s="24"/>
+      <c r="V78" s="13"/>
+    </row>
+    <row r="79" spans="16:22">
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="22"/>
+      <c r="S79" s="23"/>
+      <c r="T79" s="24"/>
+      <c r="V79" s="13"/>
+    </row>
+    <row r="80" spans="16:22">
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="22"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="24"/>
+      <c r="V80" s="13"/>
+    </row>
+    <row r="81" spans="16:22">
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="22"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="24"/>
+      <c r="V81" s="13"/>
+    </row>
+    <row r="82" spans="16:22">
+      <c r="P82" s="13"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="22"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="24"/>
+      <c r="V82" s="13"/>
+    </row>
+    <row r="83" spans="16:22">
+      <c r="P83" s="13"/>
+      <c r="Q83" s="26"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="23"/>
+      <c r="T83" s="24"/>
+      <c r="V83" s="13"/>
+    </row>
+    <row r="84" spans="16:22">
+      <c r="P84" s="13"/>
+      <c r="Q84" s="26"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="23"/>
+      <c r="T84" s="24"/>
+      <c r="V84" s="13"/>
+    </row>
+    <row r="85" spans="16:22">
+      <c r="P85" s="13"/>
+      <c r="Q85" s="26"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="23"/>
+      <c r="T85" s="24"/>
+      <c r="V85" s="13"/>
+    </row>
+    <row r="86" spans="16:22">
+      <c r="P86" s="13"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="22"/>
+      <c r="S86" s="23"/>
+      <c r="T86" s="24"/>
+      <c r="V86" s="13"/>
+    </row>
+    <row r="87" spans="16:22">
+      <c r="P87" s="13"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="23"/>
+      <c r="T87" s="24"/>
+      <c r="V87" s="13"/>
+    </row>
+    <row r="88" spans="16:22">
+      <c r="P88" s="26"/>
+      <c r="Q88" s="26"/>
+      <c r="R88" s="27"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="29"/>
+      <c r="V88" s="13"/>
+    </row>
+    <row r="89" spans="16:22">
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
+      <c r="R89" s="27"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="29"/>
+      <c r="V89" s="13"/>
+    </row>
+    <row r="90" spans="16:22">
+      <c r="P90" s="26"/>
+      <c r="Q90" s="26"/>
+      <c r="R90" s="27"/>
+      <c r="S90" s="28"/>
+      <c r="T90" s="29"/>
+      <c r="V90" s="13"/>
+    </row>
+    <row r="91" spans="16:22">
+      <c r="P91" s="26"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="22"/>
+      <c r="S91" s="23"/>
+      <c r="T91" s="24"/>
+      <c r="V91" s="13"/>
+    </row>
+    <row r="92" spans="16:22">
+      <c r="P92" s="26"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="22"/>
+      <c r="S92" s="23"/>
+      <c r="T92" s="24"/>
+      <c r="V92" s="13"/>
+    </row>
+    <row r="93" spans="16:22">
+      <c r="P93" s="26"/>
+      <c r="Q93" s="13"/>
+      <c r="R93" s="22"/>
+      <c r="S93" s="23"/>
+      <c r="T93" s="24"/>
+      <c r="V93" s="13"/>
+    </row>
+    <row r="94" spans="16:22">
+      <c r="P94" s="26"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="22"/>
+      <c r="S94" s="23"/>
+      <c r="T94" s="24"/>
+      <c r="V94" s="13"/>
+    </row>
+    <row r="95" spans="16:22">
+      <c r="P95" s="26"/>
+      <c r="Q95" s="26"/>
+      <c r="R95" s="22"/>
+      <c r="S95" s="23"/>
+      <c r="T95" s="24"/>
+      <c r="V95" s="13"/>
+    </row>
+    <row r="96" spans="16:22">
+      <c r="P96" s="26"/>
+      <c r="Q96" s="26"/>
+      <c r="R96" s="22"/>
+      <c r="S96" s="23"/>
+      <c r="T96" s="24"/>
+      <c r="V96" s="13"/>
+    </row>
+    <row r="97" spans="16:22">
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="22"/>
+      <c r="S97" s="23"/>
+      <c r="T97" s="24"/>
+      <c r="V97" s="13"/>
+    </row>
+    <row r="98" spans="16:22">
+      <c r="P98" s="26"/>
+      <c r="Q98" s="26"/>
+      <c r="S98" s="23"/>
+      <c r="T98" s="24"/>
+      <c r="V98" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="AM4:AP4"/>
-    <mergeCell ref="AI4:AK4"/>
+    <mergeCell ref="BU4:BX4"/>
+    <mergeCell ref="X4:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
